--- a/controle/controle.xlsx
+++ b/controle/controle.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheli\Desktop\github\licenses-and-certificates\certificates and licenses\Control\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheli\Desktop\github\certificates\controle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D57859-2C65-42D4-A61B-346534381186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC82A85C-D890-4AB1-95D3-067B46E9D7A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Control" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Control!$B$2:$I$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Control!$B$2:$I$68</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -346,9 +346,6 @@
     <t>Governança de Dados - Master Practitioner</t>
   </si>
   <si>
-    <t>https://github.com/Phelipe-Sempreboni/licenses-and-certificates/certificado.pdf</t>
-  </si>
-  <si>
     <t>Carlos Caldo Des. Profissional e Pessoal</t>
   </si>
   <si>
@@ -481,7 +478,10 @@
     <t>Governança de Dados, MDM e Qualidade de Dados com LGPD</t>
   </si>
   <si>
-    <t>https://github.com/Phelipe-Sempreboni/licenses-and-certificates/blob/main/certificates%20and%20licenses/CS%20Treina/Governan%C3%A7a%2C%20MDM%20e%20Qual.%20de%20Dados%20com%20LGPD/certificado.pdf</t>
+    <t>https://github.com/Phelipe-Sempreboni/certificates/blob/main/carlos-caldo/data-governance/gov-master-practitioner/certificado.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/Phelipe-Sempreboni/certificates/blob/main/cs-treina/data-governance/governanca-mdm-qual-dados-lgpd/certificado.pdf</t>
   </si>
 </sst>
 </file>
@@ -879,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0F2FFB-C69B-48E5-8D17-73A3C2383ABD}">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1941,10 +1941,10 @@
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="D42" s="2">
         <v>8</v>
@@ -1953,7 +1953,7 @@
         <v>44981</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>28</v>
@@ -1967,10 +1967,10 @@
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D43" s="2">
         <v>8</v>
@@ -1979,7 +1979,7 @@
         <v>45104</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>28</v>
@@ -2123,7 +2123,7 @@
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>101</v>
@@ -2135,7 +2135,7 @@
         <v>45227</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>28</v>
@@ -2149,10 +2149,10 @@
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D50" s="2">
         <v>12</v>
@@ -2161,7 +2161,7 @@
         <v>45322</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>28</v>
@@ -2175,10 +2175,10 @@
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D51" s="2">
         <v>12</v>
@@ -2187,7 +2187,7 @@
         <v>45322</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>28</v>
@@ -2201,10 +2201,10 @@
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D52" s="2">
         <v>4</v>
@@ -2213,7 +2213,7 @@
         <v>45322</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>28</v>
@@ -2230,7 +2230,7 @@
         <v>27</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D53" s="2">
         <v>10</v>
@@ -2239,7 +2239,7 @@
         <v>45388</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>28</v>
@@ -2256,7 +2256,7 @@
         <v>27</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D54" s="2">
         <v>8</v>
@@ -2265,7 +2265,7 @@
         <v>45388</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>28</v>
@@ -2282,7 +2282,7 @@
         <v>66</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D55" s="2">
         <v>1</v>
@@ -2291,7 +2291,7 @@
         <v>45389</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>28</v>
@@ -2308,7 +2308,7 @@
         <v>66</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D56" s="2">
         <v>6</v>
@@ -2317,7 +2317,7 @@
         <v>45395</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>28</v>
@@ -2334,7 +2334,7 @@
         <v>27</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D57" s="2">
         <v>8</v>
@@ -2343,7 +2343,7 @@
         <v>45396</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>28</v>
@@ -2360,7 +2360,7 @@
         <v>27</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D58" s="2">
         <v>8</v>
@@ -2369,7 +2369,7 @@
         <v>45396</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>28</v>
@@ -2386,7 +2386,7 @@
         <v>27</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D59" s="2">
         <v>8</v>
@@ -2395,7 +2395,7 @@
         <v>45397</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>28</v>
@@ -2412,7 +2412,7 @@
         <v>27</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D60" s="2">
         <v>6</v>
@@ -2421,7 +2421,7 @@
         <v>45397</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>28</v>
@@ -2438,7 +2438,7 @@
         <v>27</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D61" s="2">
         <v>8</v>
@@ -2447,7 +2447,7 @@
         <v>45397</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>28</v>
@@ -2464,7 +2464,7 @@
         <v>27</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D62" s="2">
         <v>8</v>
@@ -2473,7 +2473,7 @@
         <v>45397</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>28</v>
@@ -2490,7 +2490,7 @@
         <v>27</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D63" s="2">
         <v>8</v>
@@ -2499,7 +2499,7 @@
         <v>45400</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>28</v>
@@ -2516,7 +2516,7 @@
         <v>27</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D64" s="2">
         <v>10</v>
@@ -2525,7 +2525,7 @@
         <v>45403</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>28</v>
@@ -2542,7 +2542,7 @@
         <v>27</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D65" s="2">
         <v>8</v>
@@ -2551,7 +2551,7 @@
         <v>45435</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>28</v>
@@ -2568,7 +2568,7 @@
         <v>27</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D66" s="2">
         <v>6</v>
@@ -2577,7 +2577,7 @@
         <v>45440</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>28</v>
@@ -2594,7 +2594,7 @@
         <v>27</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D67" s="2">
         <v>6</v>
@@ -2603,7 +2603,7 @@
         <v>45440</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>28</v>
@@ -2617,10 +2617,10 @@
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="D68" s="2">
         <v>12</v>
@@ -2642,7 +2642,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:I62" xr:uid="{7D0F2FFB-C69B-48E5-8D17-73A3C2383ABD}"/>
+  <autoFilter ref="B2:I68" xr:uid="{7D0F2FFB-C69B-48E5-8D17-73A3C2383ABD}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:I37">
     <sortCondition ref="E2:E37"/>
   </sortState>

--- a/controle/controle.xlsx
+++ b/controle/controle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheli\Desktop\github\certificates\controle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC82A85C-D890-4AB1-95D3-067B46E9D7A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D737A079-2029-46A4-B0D8-F6BEBEB0D265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Control" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Control!$B$2:$I$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Control!$B$2:$I$69</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="151">
   <si>
     <t>Youtube parte 1: criação e otimização de um canal (de 03/02/2021 a 23/02/2021) 8hrs</t>
   </si>
@@ -482,6 +482,15 @@
   </si>
   <si>
     <t>https://github.com/Phelipe-Sempreboni/certificates/blob/main/cs-treina/data-governance/governanca-mdm-qual-dados-lgpd/certificado.pdf</t>
+  </si>
+  <si>
+    <t>Anhembi Morumbi</t>
+  </si>
+  <si>
+    <t>Big Data e Inteligência Analítica (Graduação)</t>
+  </si>
+  <si>
+    <t>Por questões de segurança e dados pessoais, o diploma não pode ser divulgado.</t>
   </si>
 </sst>
 </file>
@@ -877,10 +886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0F2FFB-C69B-48E5-8D17-73A3C2383ABD}">
-  <dimension ref="A1:J68"/>
+  <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1837,19 +1846,19 @@
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="D38" s="2">
-        <v>12</v>
+        <v>2012</v>
       </c>
       <c r="E38" s="3">
-        <v>44744</v>
+        <v>44742</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>83</v>
+        <v>150</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>28</v>
@@ -1858,7 +1867,7 @@
         <v>28</v>
       </c>
       <c r="I38" s="3">
-        <v>44744</v>
+        <v>45467</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.2">
@@ -1866,16 +1875,16 @@
         <v>65</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D39" s="2">
         <v>12</v>
       </c>
       <c r="E39" s="3">
-        <v>44749</v>
+        <v>44744</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>28</v>
@@ -1884,24 +1893,24 @@
         <v>28</v>
       </c>
       <c r="I39" s="3">
-        <v>44749</v>
+        <v>44744</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D40" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E40" s="3">
-        <v>44753</v>
+        <v>44749</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>28</v>
@@ -1910,7 +1919,7 @@
         <v>28</v>
       </c>
       <c r="I40" s="3">
-        <v>44753</v>
+        <v>44749</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.2">
@@ -1918,16 +1927,16 @@
         <v>27</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D41" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E41" s="3">
-        <v>44756</v>
+        <v>44753</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>28</v>
@@ -1941,19 +1950,19 @@
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="D42" s="2">
         <v>8</v>
       </c>
       <c r="E42" s="3">
-        <v>44981</v>
+        <v>44756</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>28</v>
@@ -1962,7 +1971,7 @@
         <v>28</v>
       </c>
       <c r="I42" s="3">
-        <v>44981</v>
+        <v>44753</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.2">
@@ -1970,16 +1979,16 @@
         <v>113</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D43" s="2">
         <v>8</v>
       </c>
       <c r="E43" s="3">
-        <v>45104</v>
+        <v>44981</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>28</v>
@@ -1988,24 +1997,24 @@
         <v>28</v>
       </c>
       <c r="I43" s="3">
-        <v>45104</v>
+        <v>44981</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="D44" s="2">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E44" s="3">
-        <v>45078</v>
+        <v>45104</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>28</v>
@@ -2014,24 +2023,24 @@
         <v>28</v>
       </c>
       <c r="I44" s="3">
-        <v>45078</v>
+        <v>45104</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D45" s="2">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E45" s="3">
-        <v>45151</v>
+        <v>45078</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>28</v>
@@ -2040,7 +2049,7 @@
         <v>28</v>
       </c>
       <c r="I45" s="3">
-        <v>45151</v>
+        <v>45078</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.2">
@@ -2048,16 +2057,16 @@
         <v>27</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D46" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E46" s="3">
-        <v>45154</v>
+        <v>45151</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>28</v>
@@ -2066,24 +2075,24 @@
         <v>28</v>
       </c>
       <c r="I46" s="3">
-        <v>45154</v>
+        <v>45151</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B47" s="2" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D47" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E47" s="3">
-        <v>45187</v>
+        <v>45154</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>28</v>
@@ -2092,24 +2101,24 @@
         <v>28</v>
       </c>
       <c r="I47" s="3">
-        <v>45239</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D48" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E48" s="3">
-        <v>45230</v>
+        <v>45187</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>28</v>
@@ -2123,19 +2132,19 @@
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D49" s="2">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E49" s="3">
-        <v>45227</v>
+        <v>45230</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>146</v>
+        <v>98</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>28</v>
@@ -2144,24 +2153,24 @@
         <v>28</v>
       </c>
       <c r="I49" s="3">
-        <v>45227</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D50" s="2">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E50" s="3">
-        <v>45322</v>
+        <v>45227</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>28</v>
@@ -2170,7 +2179,7 @@
         <v>28</v>
       </c>
       <c r="I50" s="3">
-        <v>45322</v>
+        <v>45227</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.2">
@@ -2178,7 +2187,7 @@
         <v>113</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D51" s="2">
         <v>12</v>
@@ -2187,7 +2196,7 @@
         <v>45322</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>28</v>
@@ -2204,16 +2213,16 @@
         <v>113</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D52" s="2">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E52" s="3">
         <v>45322</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>28</v>
@@ -2227,19 +2236,19 @@
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D53" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E53" s="3">
-        <v>45388</v>
+        <v>45322</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>28</v>
@@ -2248,7 +2257,7 @@
         <v>28</v>
       </c>
       <c r="I53" s="3">
-        <v>45388</v>
+        <v>45322</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.2">
@@ -2256,16 +2265,16 @@
         <v>27</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D54" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E54" s="3">
         <v>45388</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>28</v>
@@ -2279,19 +2288,19 @@
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="D55" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E55" s="3">
-        <v>45389</v>
+        <v>45388</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>28</v>
@@ -2300,7 +2309,7 @@
         <v>28</v>
       </c>
       <c r="I55" s="3">
-        <v>45389</v>
+        <v>45388</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.2">
@@ -2308,16 +2317,16 @@
         <v>66</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D56" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E56" s="3">
-        <v>45395</v>
+        <v>45389</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>28</v>
@@ -2326,24 +2335,24 @@
         <v>28</v>
       </c>
       <c r="I56" s="3">
-        <v>45395</v>
+        <v>45389</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D57" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E57" s="3">
-        <v>45396</v>
+        <v>45395</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>28</v>
@@ -2352,7 +2361,7 @@
         <v>28</v>
       </c>
       <c r="I57" s="3">
-        <v>45396</v>
+        <v>45395</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.2">
@@ -2360,7 +2369,7 @@
         <v>27</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D58" s="2">
         <v>8</v>
@@ -2369,7 +2378,7 @@
         <v>45396</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>28</v>
@@ -2386,16 +2395,16 @@
         <v>27</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D59" s="2">
         <v>8</v>
       </c>
       <c r="E59" s="3">
-        <v>45397</v>
+        <v>45396</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>28</v>
@@ -2404,7 +2413,7 @@
         <v>28</v>
       </c>
       <c r="I59" s="3">
-        <v>45397</v>
+        <v>45396</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.2">
@@ -2412,16 +2421,16 @@
         <v>27</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D60" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E60" s="3">
         <v>45397</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>28</v>
@@ -2438,16 +2447,16 @@
         <v>27</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D61" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E61" s="3">
         <v>45397</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>28</v>
@@ -2464,7 +2473,7 @@
         <v>27</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D62" s="2">
         <v>8</v>
@@ -2473,7 +2482,7 @@
         <v>45397</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>28</v>
@@ -2490,16 +2499,16 @@
         <v>27</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D63" s="2">
         <v>8</v>
       </c>
       <c r="E63" s="3">
-        <v>45400</v>
+        <v>45397</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>28</v>
@@ -2508,7 +2517,7 @@
         <v>28</v>
       </c>
       <c r="I63" s="3">
-        <v>45400</v>
+        <v>45397</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.2">
@@ -2516,16 +2525,16 @@
         <v>27</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D64" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E64" s="3">
-        <v>45403</v>
+        <v>45400</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>28</v>
@@ -2534,7 +2543,7 @@
         <v>28</v>
       </c>
       <c r="I64" s="3">
-        <v>45403</v>
+        <v>45400</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.2">
@@ -2542,16 +2551,16 @@
         <v>27</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D65" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E65" s="3">
-        <v>45435</v>
+        <v>45403</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>28</v>
@@ -2560,7 +2569,7 @@
         <v>28</v>
       </c>
       <c r="I65" s="3">
-        <v>45435</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.2">
@@ -2568,16 +2577,16 @@
         <v>27</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D66" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E66" s="3">
-        <v>45440</v>
+        <v>45435</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>28</v>
@@ -2586,7 +2595,7 @@
         <v>28</v>
       </c>
       <c r="I66" s="3">
-        <v>45440</v>
+        <v>45435</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.2">
@@ -2594,7 +2603,7 @@
         <v>27</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D67" s="2">
         <v>6</v>
@@ -2603,7 +2612,7 @@
         <v>45440</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>28</v>
@@ -2617,32 +2626,58 @@
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D68" s="2">
+        <v>6</v>
+      </c>
+      <c r="E68" s="3">
+        <v>45440</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I68" s="3">
+        <v>45440</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B69" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D69" s="2">
         <v>12</v>
       </c>
-      <c r="E68" s="3">
+      <c r="E69" s="3">
         <v>45441</v>
       </c>
-      <c r="F68" s="4" t="s">
+      <c r="F69" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="G68" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I68" s="3">
+      <c r="G69" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I69" s="3">
         <v>45441</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:I68" xr:uid="{7D0F2FFB-C69B-48E5-8D17-73A3C2383ABD}"/>
+  <autoFilter ref="B2:I69" xr:uid="{7D0F2FFB-C69B-48E5-8D17-73A3C2383ABD}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:I37">
     <sortCondition ref="E2:E37"/>
   </sortState>
@@ -2681,37 +2716,37 @@
     <hyperlink ref="F28" r:id="rId32" xr:uid="{2E64C43D-34D4-4B5A-B522-A16F36E2CD99}"/>
     <hyperlink ref="F6" r:id="rId33" xr:uid="{85A1F8FA-71AD-41F6-A256-F0040690D899}"/>
     <hyperlink ref="F3" r:id="rId34" xr:uid="{23EF72AC-7CCD-4AF2-A26F-2D9F9212F721}"/>
-    <hyperlink ref="F38" r:id="rId35" xr:uid="{F9A6DD3F-248C-4A6C-8BB2-F553239DF6EF}"/>
-    <hyperlink ref="F39" r:id="rId36" xr:uid="{24F14443-B5D3-497F-BB68-8932122C254B}"/>
-    <hyperlink ref="F40" r:id="rId37" xr:uid="{3985EAEF-2E26-43A4-9767-4810C4F509AE}"/>
-    <hyperlink ref="F41" r:id="rId38" xr:uid="{5EC806D4-4D6E-450F-B830-77F86AAB44F6}"/>
-    <hyperlink ref="F44" r:id="rId39" xr:uid="{F92BB73A-4870-4463-9880-C0101089B75F}"/>
-    <hyperlink ref="F45" r:id="rId40" xr:uid="{2200F868-1793-4044-8C8C-7509D9E3BC95}"/>
-    <hyperlink ref="F46" r:id="rId41" xr:uid="{11373B3D-3505-4571-ACA3-186EAFF6C80D}"/>
-    <hyperlink ref="F48" r:id="rId42" xr:uid="{61BDC9B9-2D2F-42FD-A6A5-B4B8EF9DF595}"/>
-    <hyperlink ref="F47" r:id="rId43" xr:uid="{74FD30AE-E78C-4415-8107-09DCF86F78D4}"/>
-    <hyperlink ref="F49" r:id="rId44" xr:uid="{D45705A3-046C-41D5-8586-11372C6D932B}"/>
-    <hyperlink ref="F54" r:id="rId45" xr:uid="{BEE4A3C8-22E0-46D9-BEFF-1F0599BFF30C}"/>
-    <hyperlink ref="F53" r:id="rId46" xr:uid="{E93F6058-3102-442A-AF31-89FB6C967E95}"/>
-    <hyperlink ref="F50" r:id="rId47" xr:uid="{AAD584B6-B733-4A13-8CA0-3C2D93B77350}"/>
-    <hyperlink ref="F51" r:id="rId48" xr:uid="{31EAD665-6BB1-4A57-8DA4-828A856CB309}"/>
-    <hyperlink ref="F52" r:id="rId49" xr:uid="{8F644EFB-2A2A-4E80-AEDD-AC437938F2CE}"/>
-    <hyperlink ref="F42" r:id="rId50" xr:uid="{21C198E4-54BF-494C-94E0-937F7C6B2700}"/>
-    <hyperlink ref="F43" r:id="rId51" xr:uid="{A6F54A28-C025-4F41-BC45-1EB9655468E0}"/>
-    <hyperlink ref="F55" r:id="rId52" xr:uid="{52E5D608-7812-4EAC-9847-E54CFF0A5C61}"/>
-    <hyperlink ref="F56" r:id="rId53" xr:uid="{5A8046BA-251C-4A4A-BF2F-B540D4A3BDC9}"/>
-    <hyperlink ref="F58" r:id="rId54" xr:uid="{981E0DF0-8465-41E3-A9D9-A5CEE4716D22}"/>
-    <hyperlink ref="F57" r:id="rId55" xr:uid="{58A820BC-D210-458D-94F6-500AC8C19D41}"/>
-    <hyperlink ref="F59" r:id="rId56" xr:uid="{A9454E4B-0BE7-4ED1-BD8B-6AD9D1F3636B}"/>
-    <hyperlink ref="F60" r:id="rId57" xr:uid="{2DDE640F-8C21-4C4E-9ED3-C8F1BD200D89}"/>
-    <hyperlink ref="F61" r:id="rId58" xr:uid="{0AFE3FE2-94DF-4EB8-B4F8-12EC55631F98}"/>
-    <hyperlink ref="F62" r:id="rId59" xr:uid="{4A96738B-C66F-46CA-84DA-902B4C5E7E66}"/>
-    <hyperlink ref="F63" r:id="rId60" xr:uid="{C3FE1613-6A8A-4076-93AE-2FE719C9E1F4}"/>
-    <hyperlink ref="F64" r:id="rId61" xr:uid="{59709705-CCC7-40DB-9824-FB35FC74DA1B}"/>
-    <hyperlink ref="F65" r:id="rId62" xr:uid="{2272C9B4-4C82-44CD-AC14-1F52CE0567E7}"/>
-    <hyperlink ref="F66" r:id="rId63" xr:uid="{C309092C-9E03-40F1-B088-E727AECF9472}"/>
-    <hyperlink ref="F67" r:id="rId64" xr:uid="{341D9379-7D22-4312-B0F3-1AE58A2C88EA}"/>
-    <hyperlink ref="F68" r:id="rId65" xr:uid="{10CC71D6-CF99-4C08-A3D2-85ADF1B347D1}"/>
+    <hyperlink ref="F39" r:id="rId35" xr:uid="{F9A6DD3F-248C-4A6C-8BB2-F553239DF6EF}"/>
+    <hyperlink ref="F40" r:id="rId36" xr:uid="{24F14443-B5D3-497F-BB68-8932122C254B}"/>
+    <hyperlink ref="F41" r:id="rId37" xr:uid="{3985EAEF-2E26-43A4-9767-4810C4F509AE}"/>
+    <hyperlink ref="F42" r:id="rId38" xr:uid="{5EC806D4-4D6E-450F-B830-77F86AAB44F6}"/>
+    <hyperlink ref="F45" r:id="rId39" xr:uid="{F92BB73A-4870-4463-9880-C0101089B75F}"/>
+    <hyperlink ref="F46" r:id="rId40" xr:uid="{2200F868-1793-4044-8C8C-7509D9E3BC95}"/>
+    <hyperlink ref="F47" r:id="rId41" xr:uid="{11373B3D-3505-4571-ACA3-186EAFF6C80D}"/>
+    <hyperlink ref="F49" r:id="rId42" xr:uid="{61BDC9B9-2D2F-42FD-A6A5-B4B8EF9DF595}"/>
+    <hyperlink ref="F48" r:id="rId43" xr:uid="{74FD30AE-E78C-4415-8107-09DCF86F78D4}"/>
+    <hyperlink ref="F50" r:id="rId44" xr:uid="{D45705A3-046C-41D5-8586-11372C6D932B}"/>
+    <hyperlink ref="F55" r:id="rId45" xr:uid="{BEE4A3C8-22E0-46D9-BEFF-1F0599BFF30C}"/>
+    <hyperlink ref="F54" r:id="rId46" xr:uid="{E93F6058-3102-442A-AF31-89FB6C967E95}"/>
+    <hyperlink ref="F51" r:id="rId47" xr:uid="{AAD584B6-B733-4A13-8CA0-3C2D93B77350}"/>
+    <hyperlink ref="F52" r:id="rId48" xr:uid="{31EAD665-6BB1-4A57-8DA4-828A856CB309}"/>
+    <hyperlink ref="F53" r:id="rId49" xr:uid="{8F644EFB-2A2A-4E80-AEDD-AC437938F2CE}"/>
+    <hyperlink ref="F43" r:id="rId50" xr:uid="{21C198E4-54BF-494C-94E0-937F7C6B2700}"/>
+    <hyperlink ref="F44" r:id="rId51" xr:uid="{A6F54A28-C025-4F41-BC45-1EB9655468E0}"/>
+    <hyperlink ref="F56" r:id="rId52" xr:uid="{52E5D608-7812-4EAC-9847-E54CFF0A5C61}"/>
+    <hyperlink ref="F57" r:id="rId53" xr:uid="{5A8046BA-251C-4A4A-BF2F-B540D4A3BDC9}"/>
+    <hyperlink ref="F59" r:id="rId54" xr:uid="{981E0DF0-8465-41E3-A9D9-A5CEE4716D22}"/>
+    <hyperlink ref="F58" r:id="rId55" xr:uid="{58A820BC-D210-458D-94F6-500AC8C19D41}"/>
+    <hyperlink ref="F60" r:id="rId56" xr:uid="{A9454E4B-0BE7-4ED1-BD8B-6AD9D1F3636B}"/>
+    <hyperlink ref="F61" r:id="rId57" xr:uid="{2DDE640F-8C21-4C4E-9ED3-C8F1BD200D89}"/>
+    <hyperlink ref="F62" r:id="rId58" xr:uid="{0AFE3FE2-94DF-4EB8-B4F8-12EC55631F98}"/>
+    <hyperlink ref="F63" r:id="rId59" xr:uid="{4A96738B-C66F-46CA-84DA-902B4C5E7E66}"/>
+    <hyperlink ref="F64" r:id="rId60" xr:uid="{C3FE1613-6A8A-4076-93AE-2FE719C9E1F4}"/>
+    <hyperlink ref="F65" r:id="rId61" xr:uid="{59709705-CCC7-40DB-9824-FB35FC74DA1B}"/>
+    <hyperlink ref="F66" r:id="rId62" xr:uid="{2272C9B4-4C82-44CD-AC14-1F52CE0567E7}"/>
+    <hyperlink ref="F67" r:id="rId63" xr:uid="{C309092C-9E03-40F1-B088-E727AECF9472}"/>
+    <hyperlink ref="F68" r:id="rId64" xr:uid="{341D9379-7D22-4312-B0F3-1AE58A2C88EA}"/>
+    <hyperlink ref="F69" r:id="rId65" xr:uid="{10CC71D6-CF99-4C08-A3D2-85ADF1B347D1}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId66"/>

--- a/controle/controle.xlsx
+++ b/controle/controle.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheli\Desktop\github\certificates\controle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D737A079-2029-46A4-B0D8-F6BEBEB0D265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF356F5-EC55-4912-A7FB-915FDD4F8499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Control" sheetId="1" r:id="rId1"/>
+    <sheet name="Certificados, cursos, badges" sheetId="1" r:id="rId1"/>
+    <sheet name="Formações" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Control!$B$2:$I$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Certificados, cursos, badges'!$B$2:$I$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Formações!$B$2:$I$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="156">
   <si>
     <t>Youtube parte 1: criação e otimização de um canal (de 03/02/2021 a 23/02/2021) 8hrs</t>
   </si>
@@ -484,13 +486,28 @@
     <t>https://github.com/Phelipe-Sempreboni/certificates/blob/main/cs-treina/data-governance/governanca-mdm-qual-dados-lgpd/certificado.pdf</t>
   </si>
   <si>
-    <t>Anhembi Morumbi</t>
-  </si>
-  <si>
     <t>Big Data e Inteligência Analítica (Graduação)</t>
   </si>
   <si>
     <t>Por questões de segurança e dados pessoais, o diploma não pode ser divulgado.</t>
+  </si>
+  <si>
+    <t>ETEC Prof. Basilides de Godoy</t>
+  </si>
+  <si>
+    <t>Universidade Cruzeiro do Sul</t>
+  </si>
+  <si>
+    <t>Universidade Anhembi Morumbi</t>
+  </si>
+  <si>
+    <t>Técnico em Eletrotécnica (Técnico)</t>
+  </si>
+  <si>
+    <t>Instituição</t>
+  </si>
+  <si>
+    <t>Governança de Dados (Especialização - Pós Graduação)</t>
   </si>
 </sst>
 </file>
@@ -886,10 +903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0F2FFB-C69B-48E5-8D17-73A3C2383ABD}">
-  <dimension ref="A1:J69"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1846,19 +1863,19 @@
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
-        <v>148</v>
+        <v>65</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="D38" s="2">
-        <v>2012</v>
+        <v>12</v>
       </c>
       <c r="E38" s="3">
-        <v>44742</v>
+        <v>44744</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>150</v>
+        <v>83</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>28</v>
@@ -1867,7 +1884,7 @@
         <v>28</v>
       </c>
       <c r="I38" s="3">
-        <v>45467</v>
+        <v>44744</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.2">
@@ -1875,16 +1892,16 @@
         <v>65</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D39" s="2">
         <v>12</v>
       </c>
       <c r="E39" s="3">
-        <v>44744</v>
+        <v>44749</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>28</v>
@@ -1893,24 +1910,24 @@
         <v>28</v>
       </c>
       <c r="I39" s="3">
-        <v>44744</v>
+        <v>44749</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D40" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E40" s="3">
-        <v>44749</v>
+        <v>44753</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>28</v>
@@ -1919,7 +1936,7 @@
         <v>28</v>
       </c>
       <c r="I40" s="3">
-        <v>44749</v>
+        <v>44753</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.2">
@@ -1927,16 +1944,16 @@
         <v>27</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D41" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E41" s="3">
-        <v>44753</v>
+        <v>44756</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>28</v>
@@ -1950,19 +1967,19 @@
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="D42" s="2">
         <v>8</v>
       </c>
       <c r="E42" s="3">
-        <v>44756</v>
+        <v>44981</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>28</v>
@@ -1971,7 +1988,7 @@
         <v>28</v>
       </c>
       <c r="I42" s="3">
-        <v>44753</v>
+        <v>44981</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.2">
@@ -1979,16 +1996,16 @@
         <v>113</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D43" s="2">
         <v>8</v>
       </c>
       <c r="E43" s="3">
-        <v>44981</v>
+        <v>45104</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>28</v>
@@ -1997,24 +2014,24 @@
         <v>28</v>
       </c>
       <c r="I43" s="3">
-        <v>44981</v>
+        <v>45104</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="D44" s="2">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E44" s="3">
-        <v>45104</v>
+        <v>45078</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>28</v>
@@ -2023,24 +2040,24 @@
         <v>28</v>
       </c>
       <c r="I44" s="3">
-        <v>45104</v>
+        <v>45078</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D45" s="2">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E45" s="3">
-        <v>45078</v>
+        <v>45151</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>28</v>
@@ -2049,7 +2066,7 @@
         <v>28</v>
       </c>
       <c r="I45" s="3">
-        <v>45078</v>
+        <v>45151</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.2">
@@ -2057,16 +2074,16 @@
         <v>27</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D46" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E46" s="3">
-        <v>45151</v>
+        <v>45154</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>28</v>
@@ -2075,24 +2092,24 @@
         <v>28</v>
       </c>
       <c r="I46" s="3">
-        <v>45151</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B47" s="2" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D47" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>45154</v>
+        <v>45187</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>28</v>
@@ -2101,24 +2118,24 @@
         <v>28</v>
       </c>
       <c r="I47" s="3">
-        <v>45154</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D48" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E48" s="3">
-        <v>45187</v>
+        <v>45230</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>28</v>
@@ -2132,19 +2149,19 @@
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D49" s="2">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E49" s="3">
-        <v>45230</v>
+        <v>45227</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>28</v>
@@ -2153,24 +2170,24 @@
         <v>28</v>
       </c>
       <c r="I49" s="3">
-        <v>45239</v>
+        <v>45227</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D50" s="2">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E50" s="3">
-        <v>45227</v>
+        <v>45322</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>28</v>
@@ -2179,7 +2196,7 @@
         <v>28</v>
       </c>
       <c r="I50" s="3">
-        <v>45227</v>
+        <v>45322</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.2">
@@ -2187,7 +2204,7 @@
         <v>113</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D51" s="2">
         <v>12</v>
@@ -2196,7 +2213,7 @@
         <v>45322</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>28</v>
@@ -2213,16 +2230,16 @@
         <v>113</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D52" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E52" s="3">
         <v>45322</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>28</v>
@@ -2236,19 +2253,19 @@
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D53" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E53" s="3">
-        <v>45322</v>
+        <v>45388</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>28</v>
@@ -2257,7 +2274,7 @@
         <v>28</v>
       </c>
       <c r="I53" s="3">
-        <v>45322</v>
+        <v>45388</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.2">
@@ -2265,16 +2282,16 @@
         <v>27</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D54" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E54" s="3">
         <v>45388</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>28</v>
@@ -2288,19 +2305,19 @@
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="D55" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E55" s="3">
-        <v>45388</v>
+        <v>45389</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>28</v>
@@ -2309,7 +2326,7 @@
         <v>28</v>
       </c>
       <c r="I55" s="3">
-        <v>45388</v>
+        <v>45389</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.2">
@@ -2317,16 +2334,16 @@
         <v>66</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D56" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E56" s="3">
-        <v>45389</v>
+        <v>45395</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>28</v>
@@ -2335,24 +2352,24 @@
         <v>28</v>
       </c>
       <c r="I56" s="3">
-        <v>45389</v>
+        <v>45395</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D57" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E57" s="3">
-        <v>45395</v>
+        <v>45396</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>28</v>
@@ -2361,7 +2378,7 @@
         <v>28</v>
       </c>
       <c r="I57" s="3">
-        <v>45395</v>
+        <v>45396</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.2">
@@ -2369,7 +2386,7 @@
         <v>27</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D58" s="2">
         <v>8</v>
@@ -2378,7 +2395,7 @@
         <v>45396</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>28</v>
@@ -2395,16 +2412,16 @@
         <v>27</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D59" s="2">
         <v>8</v>
       </c>
       <c r="E59" s="3">
-        <v>45396</v>
+        <v>45397</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>28</v>
@@ -2413,7 +2430,7 @@
         <v>28</v>
       </c>
       <c r="I59" s="3">
-        <v>45396</v>
+        <v>45397</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.2">
@@ -2421,16 +2438,16 @@
         <v>27</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D60" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E60" s="3">
         <v>45397</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>28</v>
@@ -2447,16 +2464,16 @@
         <v>27</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D61" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E61" s="3">
         <v>45397</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>28</v>
@@ -2473,7 +2490,7 @@
         <v>27</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D62" s="2">
         <v>8</v>
@@ -2482,7 +2499,7 @@
         <v>45397</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>28</v>
@@ -2499,16 +2516,16 @@
         <v>27</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D63" s="2">
         <v>8</v>
       </c>
       <c r="E63" s="3">
-        <v>45397</v>
+        <v>45400</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>28</v>
@@ -2517,7 +2534,7 @@
         <v>28</v>
       </c>
       <c r="I63" s="3">
-        <v>45397</v>
+        <v>45400</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.2">
@@ -2525,16 +2542,16 @@
         <v>27</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D64" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E64" s="3">
-        <v>45400</v>
+        <v>45403</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>28</v>
@@ -2543,7 +2560,7 @@
         <v>28</v>
       </c>
       <c r="I64" s="3">
-        <v>45400</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.2">
@@ -2551,16 +2568,16 @@
         <v>27</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D65" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E65" s="3">
-        <v>45403</v>
+        <v>45435</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>28</v>
@@ -2569,7 +2586,7 @@
         <v>28</v>
       </c>
       <c r="I65" s="3">
-        <v>45403</v>
+        <v>45435</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.2">
@@ -2577,16 +2594,16 @@
         <v>27</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D66" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E66" s="3">
-        <v>45435</v>
+        <v>45440</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>28</v>
@@ -2595,7 +2612,7 @@
         <v>28</v>
       </c>
       <c r="I66" s="3">
-        <v>45435</v>
+        <v>45440</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.2">
@@ -2603,7 +2620,7 @@
         <v>27</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D67" s="2">
         <v>6</v>
@@ -2612,7 +2629,7 @@
         <v>45440</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>28</v>
@@ -2626,19 +2643,19 @@
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
-        <v>27</v>
+        <v>144</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D68" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E68" s="3">
-        <v>45440</v>
+        <v>45441</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>28</v>
@@ -2647,37 +2664,11 @@
         <v>28</v>
       </c>
       <c r="I68" s="3">
-        <v>45440</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B69" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D69" s="2">
-        <v>12</v>
-      </c>
-      <c r="E69" s="3">
         <v>45441</v>
       </c>
-      <c r="F69" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I69" s="3">
-        <v>45441</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:I69" xr:uid="{7D0F2FFB-C69B-48E5-8D17-73A3C2383ABD}"/>
+  <autoFilter ref="B2:I68" xr:uid="{7D0F2FFB-C69B-48E5-8D17-73A3C2383ABD}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:I37">
     <sortCondition ref="E2:E37"/>
   </sortState>
@@ -2716,39 +2707,174 @@
     <hyperlink ref="F28" r:id="rId32" xr:uid="{2E64C43D-34D4-4B5A-B522-A16F36E2CD99}"/>
     <hyperlink ref="F6" r:id="rId33" xr:uid="{85A1F8FA-71AD-41F6-A256-F0040690D899}"/>
     <hyperlink ref="F3" r:id="rId34" xr:uid="{23EF72AC-7CCD-4AF2-A26F-2D9F9212F721}"/>
-    <hyperlink ref="F39" r:id="rId35" xr:uid="{F9A6DD3F-248C-4A6C-8BB2-F553239DF6EF}"/>
-    <hyperlink ref="F40" r:id="rId36" xr:uid="{24F14443-B5D3-497F-BB68-8932122C254B}"/>
-    <hyperlink ref="F41" r:id="rId37" xr:uid="{3985EAEF-2E26-43A4-9767-4810C4F509AE}"/>
-    <hyperlink ref="F42" r:id="rId38" xr:uid="{5EC806D4-4D6E-450F-B830-77F86AAB44F6}"/>
-    <hyperlink ref="F45" r:id="rId39" xr:uid="{F92BB73A-4870-4463-9880-C0101089B75F}"/>
-    <hyperlink ref="F46" r:id="rId40" xr:uid="{2200F868-1793-4044-8C8C-7509D9E3BC95}"/>
-    <hyperlink ref="F47" r:id="rId41" xr:uid="{11373B3D-3505-4571-ACA3-186EAFF6C80D}"/>
-    <hyperlink ref="F49" r:id="rId42" xr:uid="{61BDC9B9-2D2F-42FD-A6A5-B4B8EF9DF595}"/>
-    <hyperlink ref="F48" r:id="rId43" xr:uid="{74FD30AE-E78C-4415-8107-09DCF86F78D4}"/>
-    <hyperlink ref="F50" r:id="rId44" xr:uid="{D45705A3-046C-41D5-8586-11372C6D932B}"/>
-    <hyperlink ref="F55" r:id="rId45" xr:uid="{BEE4A3C8-22E0-46D9-BEFF-1F0599BFF30C}"/>
-    <hyperlink ref="F54" r:id="rId46" xr:uid="{E93F6058-3102-442A-AF31-89FB6C967E95}"/>
-    <hyperlink ref="F51" r:id="rId47" xr:uid="{AAD584B6-B733-4A13-8CA0-3C2D93B77350}"/>
-    <hyperlink ref="F52" r:id="rId48" xr:uid="{31EAD665-6BB1-4A57-8DA4-828A856CB309}"/>
-    <hyperlink ref="F53" r:id="rId49" xr:uid="{8F644EFB-2A2A-4E80-AEDD-AC437938F2CE}"/>
-    <hyperlink ref="F43" r:id="rId50" xr:uid="{21C198E4-54BF-494C-94E0-937F7C6B2700}"/>
-    <hyperlink ref="F44" r:id="rId51" xr:uid="{A6F54A28-C025-4F41-BC45-1EB9655468E0}"/>
-    <hyperlink ref="F56" r:id="rId52" xr:uid="{52E5D608-7812-4EAC-9847-E54CFF0A5C61}"/>
-    <hyperlink ref="F57" r:id="rId53" xr:uid="{5A8046BA-251C-4A4A-BF2F-B540D4A3BDC9}"/>
-    <hyperlink ref="F59" r:id="rId54" xr:uid="{981E0DF0-8465-41E3-A9D9-A5CEE4716D22}"/>
-    <hyperlink ref="F58" r:id="rId55" xr:uid="{58A820BC-D210-458D-94F6-500AC8C19D41}"/>
-    <hyperlink ref="F60" r:id="rId56" xr:uid="{A9454E4B-0BE7-4ED1-BD8B-6AD9D1F3636B}"/>
-    <hyperlink ref="F61" r:id="rId57" xr:uid="{2DDE640F-8C21-4C4E-9ED3-C8F1BD200D89}"/>
-    <hyperlink ref="F62" r:id="rId58" xr:uid="{0AFE3FE2-94DF-4EB8-B4F8-12EC55631F98}"/>
-    <hyperlink ref="F63" r:id="rId59" xr:uid="{4A96738B-C66F-46CA-84DA-902B4C5E7E66}"/>
-    <hyperlink ref="F64" r:id="rId60" xr:uid="{C3FE1613-6A8A-4076-93AE-2FE719C9E1F4}"/>
-    <hyperlink ref="F65" r:id="rId61" xr:uid="{59709705-CCC7-40DB-9824-FB35FC74DA1B}"/>
-    <hyperlink ref="F66" r:id="rId62" xr:uid="{2272C9B4-4C82-44CD-AC14-1F52CE0567E7}"/>
-    <hyperlink ref="F67" r:id="rId63" xr:uid="{C309092C-9E03-40F1-B088-E727AECF9472}"/>
-    <hyperlink ref="F68" r:id="rId64" xr:uid="{341D9379-7D22-4312-B0F3-1AE58A2C88EA}"/>
-    <hyperlink ref="F69" r:id="rId65" xr:uid="{10CC71D6-CF99-4C08-A3D2-85ADF1B347D1}"/>
+    <hyperlink ref="F38" r:id="rId35" xr:uid="{F9A6DD3F-248C-4A6C-8BB2-F553239DF6EF}"/>
+    <hyperlink ref="F39" r:id="rId36" xr:uid="{24F14443-B5D3-497F-BB68-8932122C254B}"/>
+    <hyperlink ref="F40" r:id="rId37" xr:uid="{3985EAEF-2E26-43A4-9767-4810C4F509AE}"/>
+    <hyperlink ref="F41" r:id="rId38" xr:uid="{5EC806D4-4D6E-450F-B830-77F86AAB44F6}"/>
+    <hyperlink ref="F44" r:id="rId39" xr:uid="{F92BB73A-4870-4463-9880-C0101089B75F}"/>
+    <hyperlink ref="F45" r:id="rId40" xr:uid="{2200F868-1793-4044-8C8C-7509D9E3BC95}"/>
+    <hyperlink ref="F46" r:id="rId41" xr:uid="{11373B3D-3505-4571-ACA3-186EAFF6C80D}"/>
+    <hyperlink ref="F48" r:id="rId42" xr:uid="{61BDC9B9-2D2F-42FD-A6A5-B4B8EF9DF595}"/>
+    <hyperlink ref="F47" r:id="rId43" xr:uid="{74FD30AE-E78C-4415-8107-09DCF86F78D4}"/>
+    <hyperlink ref="F49" r:id="rId44" xr:uid="{D45705A3-046C-41D5-8586-11372C6D932B}"/>
+    <hyperlink ref="F54" r:id="rId45" xr:uid="{BEE4A3C8-22E0-46D9-BEFF-1F0599BFF30C}"/>
+    <hyperlink ref="F53" r:id="rId46" xr:uid="{E93F6058-3102-442A-AF31-89FB6C967E95}"/>
+    <hyperlink ref="F50" r:id="rId47" xr:uid="{AAD584B6-B733-4A13-8CA0-3C2D93B77350}"/>
+    <hyperlink ref="F51" r:id="rId48" xr:uid="{31EAD665-6BB1-4A57-8DA4-828A856CB309}"/>
+    <hyperlink ref="F52" r:id="rId49" xr:uid="{8F644EFB-2A2A-4E80-AEDD-AC437938F2CE}"/>
+    <hyperlink ref="F42" r:id="rId50" xr:uid="{21C198E4-54BF-494C-94E0-937F7C6B2700}"/>
+    <hyperlink ref="F43" r:id="rId51" xr:uid="{A6F54A28-C025-4F41-BC45-1EB9655468E0}"/>
+    <hyperlink ref="F55" r:id="rId52" xr:uid="{52E5D608-7812-4EAC-9847-E54CFF0A5C61}"/>
+    <hyperlink ref="F56" r:id="rId53" xr:uid="{5A8046BA-251C-4A4A-BF2F-B540D4A3BDC9}"/>
+    <hyperlink ref="F58" r:id="rId54" xr:uid="{981E0DF0-8465-41E3-A9D9-A5CEE4716D22}"/>
+    <hyperlink ref="F57" r:id="rId55" xr:uid="{58A820BC-D210-458D-94F6-500AC8C19D41}"/>
+    <hyperlink ref="F59" r:id="rId56" xr:uid="{A9454E4B-0BE7-4ED1-BD8B-6AD9D1F3636B}"/>
+    <hyperlink ref="F60" r:id="rId57" xr:uid="{2DDE640F-8C21-4C4E-9ED3-C8F1BD200D89}"/>
+    <hyperlink ref="F61" r:id="rId58" xr:uid="{0AFE3FE2-94DF-4EB8-B4F8-12EC55631F98}"/>
+    <hyperlink ref="F62" r:id="rId59" xr:uid="{4A96738B-C66F-46CA-84DA-902B4C5E7E66}"/>
+    <hyperlink ref="F63" r:id="rId60" xr:uid="{C3FE1613-6A8A-4076-93AE-2FE719C9E1F4}"/>
+    <hyperlink ref="F64" r:id="rId61" xr:uid="{59709705-CCC7-40DB-9824-FB35FC74DA1B}"/>
+    <hyperlink ref="F65" r:id="rId62" xr:uid="{2272C9B4-4C82-44CD-AC14-1F52CE0567E7}"/>
+    <hyperlink ref="F66" r:id="rId63" xr:uid="{C309092C-9E03-40F1-B088-E727AECF9472}"/>
+    <hyperlink ref="F67" r:id="rId64" xr:uid="{341D9379-7D22-4312-B0F3-1AE58A2C88EA}"/>
+    <hyperlink ref="F68" r:id="rId65" xr:uid="{10CC71D6-CF99-4C08-A3D2-85ADF1B347D1}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId66"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2E6427-F1D9-4BBB-9AE6-87A9017765C2}">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="77.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="0.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2012</v>
+      </c>
+      <c r="E3" s="3">
+        <v>41984</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="3">
+        <v>45467</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2012</v>
+      </c>
+      <c r="E4" s="3">
+        <v>44742</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="3">
+        <v>45467</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D5" s="2">
+        <v>360</v>
+      </c>
+      <c r="E5" s="3">
+        <v>45597</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="3">
+        <v>45467</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B2:I4" xr:uid="{7D0F2FFB-C69B-48E5-8D17-73A3C2383ABD}"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/controle/controle.xlsx
+++ b/controle/controle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheli\Desktop\github\certificates\controle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF356F5-EC55-4912-A7FB-915FDD4F8499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB3AA3D-AD34-45E5-8382-08078D816BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Certificados, cursos, badges" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="159">
   <si>
     <t>Youtube parte 1: criação e otimização de um canal (de 03/02/2021 a 23/02/2021) 8hrs</t>
   </si>
@@ -508,6 +508,15 @@
   </si>
   <si>
     <t>Governança de Dados (Especialização - Pós Graduação)</t>
+  </si>
+  <si>
+    <t>DAMA Meeting 2024 - Edição São Paulo</t>
+  </si>
+  <si>
+    <t>Dama Brasil</t>
+  </si>
+  <si>
+    <t>https://github.com/Phelipe-Sempreboni/certificates/blob/main/dama-brasil/dama-meeting-2024/certificado.pdf</t>
   </si>
 </sst>
 </file>
@@ -903,10 +912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0F2FFB-C69B-48E5-8D17-73A3C2383ABD}">
-  <dimension ref="A1:J68"/>
+  <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2665,6 +2674,32 @@
       </c>
       <c r="I68" s="3">
         <v>45441</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B69" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D69" s="2">
+        <v>3</v>
+      </c>
+      <c r="E69" s="3">
+        <v>45469</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I69" s="3">
+        <v>45469</v>
       </c>
     </row>
   </sheetData>
@@ -2738,9 +2773,10 @@
     <hyperlink ref="F66" r:id="rId63" xr:uid="{C309092C-9E03-40F1-B088-E727AECF9472}"/>
     <hyperlink ref="F67" r:id="rId64" xr:uid="{341D9379-7D22-4312-B0F3-1AE58A2C88EA}"/>
     <hyperlink ref="F68" r:id="rId65" xr:uid="{10CC71D6-CF99-4C08-A3D2-85ADF1B347D1}"/>
+    <hyperlink ref="F69" r:id="rId66" xr:uid="{EE66BBB2-5C47-4DAD-A91F-F3107993F671}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId66"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId67"/>
 </worksheet>
 </file>
 
@@ -2748,8 +2784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2E6427-F1D9-4BBB-9AE6-87A9017765C2}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.2"/>

--- a/controle/controle.xlsx
+++ b/controle/controle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheli\Desktop\github\certificates\controle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB3AA3D-AD34-45E5-8382-08078D816BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CFBBD3-EA3F-43AB-A68D-804C7B9CB656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Certificados, cursos, badges" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="161">
   <si>
     <t>Youtube parte 1: criação e otimização de um canal (de 03/02/2021 a 23/02/2021) 8hrs</t>
   </si>
@@ -517,6 +517,12 @@
   </si>
   <si>
     <t>https://github.com/Phelipe-Sempreboni/certificates/blob/main/dama-brasil/dama-meeting-2024/certificado.pdf</t>
+  </si>
+  <si>
+    <t>Databricks: trabalhando com diversos formatos e tipos de arquivos</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/certificate/0c532a4c-90c6-44e9-850e-b99ee7137f0d</t>
   </si>
 </sst>
 </file>
@@ -912,10 +918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0F2FFB-C69B-48E5-8D17-73A3C2383ABD}">
-  <dimension ref="A1:J69"/>
+  <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView showGridLines="0" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2700,6 +2706,32 @@
       </c>
       <c r="I69" s="3">
         <v>45469</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B70" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D70" s="2">
+        <v>8</v>
+      </c>
+      <c r="E70" s="3">
+        <v>45479</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I70" s="3">
+        <v>45479</v>
       </c>
     </row>
   </sheetData>
@@ -2774,9 +2806,10 @@
     <hyperlink ref="F67" r:id="rId64" xr:uid="{341D9379-7D22-4312-B0F3-1AE58A2C88EA}"/>
     <hyperlink ref="F68" r:id="rId65" xr:uid="{10CC71D6-CF99-4C08-A3D2-85ADF1B347D1}"/>
     <hyperlink ref="F69" r:id="rId66" xr:uid="{EE66BBB2-5C47-4DAD-A91F-F3107993F671}"/>
+    <hyperlink ref="F70" r:id="rId67" xr:uid="{E23230FF-DF9A-47AF-8550-586A3D870267}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId67"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId68"/>
 </worksheet>
 </file>
 
@@ -2784,8 +2817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2E6427-F1D9-4BBB-9AE6-87A9017765C2}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.2"/>

--- a/controle/controle.xlsx
+++ b/controle/controle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheli\Desktop\github\certificates\controle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CFBBD3-EA3F-43AB-A68D-804C7B9CB656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D46A0B-A9EF-4020-9060-E4236BEC9403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Certificados, cursos, badges" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="165">
   <si>
     <t>Youtube parte 1: criação e otimização de um canal (de 03/02/2021 a 23/02/2021) 8hrs</t>
   </si>
@@ -523,6 +523,18 @@
   </si>
   <si>
     <t>https://cursos.alura.com.br/certificate/0c532a4c-90c6-44e9-850e-b99ee7137f0d</t>
+  </si>
+  <si>
+    <t>Databricks: análise de dados</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/certificate/6e35cf29-e0b7-40ae-8750-fe8ffdf218b0</t>
+  </si>
+  <si>
+    <t>Microsserviços: padrões de projeto</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/certificate/29b8e4a2-d583-42cd-96b7-96f83a79c836</t>
   </si>
 </sst>
 </file>
@@ -918,10 +930,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0F2FFB-C69B-48E5-8D17-73A3C2383ABD}">
-  <dimension ref="A1:J70"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2732,6 +2744,58 @@
       </c>
       <c r="I70" s="3">
         <v>45479</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B71" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D71" s="2">
+        <v>6</v>
+      </c>
+      <c r="E71" s="3">
+        <v>45494</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I71" s="3">
+        <v>45494</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B72" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D72" s="2">
+        <v>8</v>
+      </c>
+      <c r="E72" s="3">
+        <v>45517</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I72" s="3">
+        <v>45517</v>
       </c>
     </row>
   </sheetData>
@@ -2807,9 +2871,11 @@
     <hyperlink ref="F68" r:id="rId65" xr:uid="{10CC71D6-CF99-4C08-A3D2-85ADF1B347D1}"/>
     <hyperlink ref="F69" r:id="rId66" xr:uid="{EE66BBB2-5C47-4DAD-A91F-F3107993F671}"/>
     <hyperlink ref="F70" r:id="rId67" xr:uid="{E23230FF-DF9A-47AF-8550-586A3D870267}"/>
+    <hyperlink ref="F72" r:id="rId68" xr:uid="{8040E4AE-742C-4B65-B762-B0A6AC48CB29}"/>
+    <hyperlink ref="F71" r:id="rId69" xr:uid="{C7F49D55-87F0-44D1-99C6-62608AF72C61}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId68"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId70"/>
 </worksheet>
 </file>
 
@@ -2817,8 +2883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2E6427-F1D9-4BBB-9AE6-87A9017765C2}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.2"/>

--- a/controle/controle.xlsx
+++ b/controle/controle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheli\Desktop\github\certificates\controle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D46A0B-A9EF-4020-9060-E4236BEC9403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555A0170-D098-4B49-901D-776C2C55AF8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="167">
   <si>
     <t>Youtube parte 1: criação e otimização de um canal (de 03/02/2021 a 23/02/2021) 8hrs</t>
   </si>
@@ -535,6 +535,12 @@
   </si>
   <si>
     <t>https://cursos.alura.com.br/certificate/29b8e4a2-d583-42cd-96b7-96f83a79c836</t>
+  </si>
+  <si>
+    <t>Engenharia de Dados com Hadoop e Spark</t>
+  </si>
+  <si>
+    <t>https://mycourse.app/BLDUSreYgR2wGoaKA</t>
   </si>
 </sst>
 </file>
@@ -930,9 +936,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0F2FFB-C69B-48E5-8D17-73A3C2383ABD}">
-  <dimension ref="A1:J72"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A36" workbookViewId="0">
       <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
@@ -2796,6 +2802,32 @@
       </c>
       <c r="I72" s="3">
         <v>45517</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B73" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D73" s="2">
+        <v>64</v>
+      </c>
+      <c r="E73" s="3">
+        <v>45534</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I73" s="3">
+        <v>45534</v>
       </c>
     </row>
   </sheetData>
@@ -2873,9 +2905,10 @@
     <hyperlink ref="F70" r:id="rId67" xr:uid="{E23230FF-DF9A-47AF-8550-586A3D870267}"/>
     <hyperlink ref="F72" r:id="rId68" xr:uid="{8040E4AE-742C-4B65-B762-B0A6AC48CB29}"/>
     <hyperlink ref="F71" r:id="rId69" xr:uid="{C7F49D55-87F0-44D1-99C6-62608AF72C61}"/>
+    <hyperlink ref="F73" r:id="rId70" xr:uid="{9C82B1C1-23C2-48F3-8EC8-BE2C01C25B5F}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId70"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId71"/>
 </worksheet>
 </file>
 

--- a/controle/controle.xlsx
+++ b/controle/controle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheli\Desktop\github\certificates\controle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555A0170-D098-4B49-901D-776C2C55AF8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE349B78-9D04-48DD-A063-D6B9A61E3FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="171">
   <si>
     <t>Youtube parte 1: criação e otimização de um canal (de 03/02/2021 a 23/02/2021) 8hrs</t>
   </si>
@@ -541,6 +541,18 @@
   </si>
   <si>
     <t>https://mycourse.app/BLDUSreYgR2wGoaKA</t>
+  </si>
+  <si>
+    <t>Big Data Real-Time Analytics com Python e Spark</t>
+  </si>
+  <si>
+    <t>https://mycourse.app/CcubvCKzPXCtRwHf7</t>
+  </si>
+  <si>
+    <t>Visualização de Dados e Design de Dashboards</t>
+  </si>
+  <si>
+    <t>https://mycourse.app/vyPDKbNYCDmw8EPP8</t>
   </si>
 </sst>
 </file>
@@ -936,10 +948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0F2FFB-C69B-48E5-8D17-73A3C2383ABD}">
-  <dimension ref="A1:J73"/>
+  <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2828,6 +2840,58 @@
       </c>
       <c r="I73" s="3">
         <v>45534</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B74" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D74" s="2">
+        <v>72</v>
+      </c>
+      <c r="E74" s="3">
+        <v>45536</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I74" s="3">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B75" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D75" s="2">
+        <v>54</v>
+      </c>
+      <c r="E75" s="3">
+        <v>45536</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I75" s="3">
+        <v>45536</v>
       </c>
     </row>
   </sheetData>
@@ -2906,9 +2970,11 @@
     <hyperlink ref="F72" r:id="rId68" xr:uid="{8040E4AE-742C-4B65-B762-B0A6AC48CB29}"/>
     <hyperlink ref="F71" r:id="rId69" xr:uid="{C7F49D55-87F0-44D1-99C6-62608AF72C61}"/>
     <hyperlink ref="F73" r:id="rId70" xr:uid="{9C82B1C1-23C2-48F3-8EC8-BE2C01C25B5F}"/>
+    <hyperlink ref="F74" r:id="rId71" xr:uid="{382CA266-F562-4F76-B5B9-7A80EFE9AEF0}"/>
+    <hyperlink ref="F75" r:id="rId72" xr:uid="{6FC7A8BD-0CC4-4D30-82DA-CE7464C3A6B6}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId71"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId73"/>
 </worksheet>
 </file>
 

--- a/controle/controle.xlsx
+++ b/controle/controle.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheli\Desktop\github\certificates\controle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE349B78-9D04-48DD-A063-D6B9A61E3FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8AC482-EC54-4849-9DA4-8AD07E3860E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="174">
   <si>
     <t>Youtube parte 1: criação e otimização de um canal (de 03/02/2021 a 23/02/2021) 8hrs</t>
   </si>
@@ -553,6 +553,15 @@
   </si>
   <si>
     <t>https://mycourse.app/vyPDKbNYCDmw8EPP8</t>
+  </si>
+  <si>
+    <t>IBM</t>
+  </si>
+  <si>
+    <t>Databricks</t>
+  </si>
+  <si>
+    <t>Databricks para líderes empresariais</t>
   </si>
 </sst>
 </file>
@@ -948,10 +957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0F2FFB-C69B-48E5-8D17-73A3C2383ABD}">
-  <dimension ref="A1:J75"/>
+  <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B58" workbookViewId="0">
+      <selection activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2893,6 +2902,112 @@
       <c r="I75" s="3">
         <v>45536</v>
       </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B76" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="3"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B77" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D77" s="2">
+        <v>1</v>
+      </c>
+      <c r="E77" s="3">
+        <v>45580</v>
+      </c>
+      <c r="F77" s="4"/>
+      <c r="G77" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I77" s="3">
+        <v>45580</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="3"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="3"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="3"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="3"/>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="3"/>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="3"/>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:I68" xr:uid="{7D0F2FFB-C69B-48E5-8D17-73A3C2383ABD}"/>

--- a/controle/controle.xlsx
+++ b/controle/controle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheli\Desktop\github\certificates\controle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8AC482-EC54-4849-9DA4-8AD07E3860E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C84E9E6-5677-4B6C-BC70-D8F9BFE036A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="176">
   <si>
     <t>Youtube parte 1: criação e otimização de um canal (de 03/02/2021 a 23/02/2021) 8hrs</t>
   </si>
@@ -562,6 +562,12 @@
   </si>
   <si>
     <t>Databricks para líderes empresariais</t>
+  </si>
+  <si>
+    <t>https://github.com/Phelipe-Sempreboni/certificates/blob/main/databricks-academy/fundamentals/databricks-l%C3%ADderes-empresariais/certificado.pdf</t>
+  </si>
+  <si>
+    <t>Acreditação Fundamentais Databricks - Português BR</t>
   </si>
 </sst>
 </file>
@@ -959,8 +965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0F2FFB-C69B-48E5-8D17-73A3C2383ABD}">
   <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B58" workbookViewId="0">
-      <selection activeCell="F77" sqref="F77"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2928,7 +2934,9 @@
       <c r="E77" s="3">
         <v>45580</v>
       </c>
-      <c r="F77" s="4"/>
+      <c r="F77" s="4" t="s">
+        <v>174</v>
+      </c>
       <c r="G77" s="2" t="s">
         <v>28</v>
       </c>
@@ -2940,14 +2948,28 @@
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="3"/>
+      <c r="B78" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D78" s="2">
+        <v>1</v>
+      </c>
+      <c r="E78" s="3">
+        <v>45584</v>
+      </c>
       <c r="F78" s="4"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="3"/>
+      <c r="G78" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I78" s="3">
+        <v>45584</v>
+      </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B79" s="2"/>
@@ -3087,9 +3109,10 @@
     <hyperlink ref="F73" r:id="rId70" xr:uid="{9C82B1C1-23C2-48F3-8EC8-BE2C01C25B5F}"/>
     <hyperlink ref="F74" r:id="rId71" xr:uid="{382CA266-F562-4F76-B5B9-7A80EFE9AEF0}"/>
     <hyperlink ref="F75" r:id="rId72" xr:uid="{6FC7A8BD-0CC4-4D30-82DA-CE7464C3A6B6}"/>
+    <hyperlink ref="F77" r:id="rId73" xr:uid="{285430CB-637C-4BC8-9FF4-7736E81B6C60}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId73"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId74"/>
 </worksheet>
 </file>
 

--- a/controle/controle.xlsx
+++ b/controle/controle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheli\Desktop\github\certificates\controle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C84E9E6-5677-4B6C-BC70-D8F9BFE036A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA83EC7-5C80-452C-B8F4-72F5F483D15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="181">
   <si>
     <t>Youtube parte 1: criação e otimização de um canal (de 03/02/2021 a 23/02/2021) 8hrs</t>
   </si>
@@ -568,6 +568,22 @@
   </si>
   <si>
     <t>Acreditação Fundamentais Databricks - Português BR</t>
+  </si>
+  <si>
+    <t>https://github.com/Phelipe-Sempreboni/certificates/blob/main/databricks-academy/fundamentals/acreditacao-fundamentais-databricks-portugues-br/certificado.pdf</t>
+  </si>
+  <si>
+    <t>Acreditação da Academia - Fundamentos do Databricks</t>
+  </si>
+  <si>
+    <t>https://credentials.databricks.com/4596b3d0-a718-480f-affb-385e2b40c6de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Fundamentos da governança de dados com o IBM Knowledge Catalog no IBM Cloud Pak for Data</t>
+  </si>
+  <si>
+    <t>https://www.credly.com/badges/603ace26-de58-4b01-86a2-f57db8e29059/public_url</t>
   </si>
 </sst>
 </file>
@@ -965,8 +981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0F2FFB-C69B-48E5-8D17-73A3C2383ABD}">
   <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="F78" sqref="F78"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2913,13 +2929,27 @@
       <c r="B76" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="3"/>
+      <c r="C76" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D76" s="2">
+        <v>3</v>
+      </c>
+      <c r="E76" s="3">
+        <v>45577</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I76" s="3">
+        <v>45577</v>
+      </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B77" s="2" t="s">
@@ -2960,7 +2990,9 @@
       <c r="E78" s="3">
         <v>45584</v>
       </c>
-      <c r="F78" s="4"/>
+      <c r="F78" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="G78" s="2" t="s">
         <v>28</v>
       </c>
@@ -2972,14 +3004,30 @@
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="3"/>
+      <c r="B79" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D79" s="2">
+        <v>0</v>
+      </c>
+      <c r="E79" s="3">
+        <v>45584</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I79" s="3">
+        <v>45584</v>
+      </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B80" s="2"/>
@@ -3110,9 +3158,12 @@
     <hyperlink ref="F74" r:id="rId71" xr:uid="{382CA266-F562-4F76-B5B9-7A80EFE9AEF0}"/>
     <hyperlink ref="F75" r:id="rId72" xr:uid="{6FC7A8BD-0CC4-4D30-82DA-CE7464C3A6B6}"/>
     <hyperlink ref="F77" r:id="rId73" xr:uid="{285430CB-637C-4BC8-9FF4-7736E81B6C60}"/>
+    <hyperlink ref="F78" r:id="rId74" xr:uid="{4CA29550-307F-4570-AE92-9867273113E4}"/>
+    <hyperlink ref="F79" r:id="rId75" xr:uid="{9D016C02-4CC0-4C30-A30B-D8035CB4F7A7}"/>
+    <hyperlink ref="F76" r:id="rId76" xr:uid="{4F07E5DB-8917-491D-9EC8-A9B474A4E4B4}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId74"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId77"/>
 </worksheet>
 </file>
 
@@ -3121,7 +3172,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.2"/>

--- a/controle/controle.xlsx
+++ b/controle/controle.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheli\Desktop\github\certificates\controle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA83EC7-5C80-452C-B8F4-72F5F483D15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85837EE7-CD0B-40B7-8470-3509A3AC7857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="184">
   <si>
     <t>Youtube parte 1: criação e otimização de um canal (de 03/02/2021 a 23/02/2021) 8hrs</t>
   </si>
@@ -584,6 +584,15 @@
   </si>
   <si>
     <t>https://www.credly.com/badges/603ace26-de58-4b01-86a2-f57db8e29059/public_url</t>
+  </si>
+  <si>
+    <t>Mackenzie</t>
+  </si>
+  <si>
+    <t>Big Data Brazil Experience 2024</t>
+  </si>
+  <si>
+    <t>https://github.com/Phelipe-Sempreboni/certificates/blob/main/mackenzie/big-data-brazil-experience-2024/certificado.pdf</t>
   </si>
 </sst>
 </file>
@@ -981,8 +990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0F2FFB-C69B-48E5-8D17-73A3C2383ABD}">
   <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3030,14 +3039,30 @@
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="3"/>
+      <c r="B80" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D80" s="2">
+        <v>8</v>
+      </c>
+      <c r="E80" s="3">
+        <v>45612</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I80" s="3">
+        <v>45621</v>
+      </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B81" s="2"/>
@@ -3161,9 +3186,10 @@
     <hyperlink ref="F78" r:id="rId74" xr:uid="{4CA29550-307F-4570-AE92-9867273113E4}"/>
     <hyperlink ref="F79" r:id="rId75" xr:uid="{9D016C02-4CC0-4C30-A30B-D8035CB4F7A7}"/>
     <hyperlink ref="F76" r:id="rId76" xr:uid="{4F07E5DB-8917-491D-9EC8-A9B474A4E4B4}"/>
+    <hyperlink ref="F80" r:id="rId77" xr:uid="{692DD5FF-CFA7-44B8-91AC-0D9DA0E63A45}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId77"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId78"/>
 </worksheet>
 </file>
 
@@ -3172,7 +3198,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.2"/>

--- a/controle/controle.xlsx
+++ b/controle/controle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheli\Desktop\github\certificates\controle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85837EE7-CD0B-40B7-8470-3509A3AC7857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D093BD92-5035-4DE4-B35D-CD022E4EDE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="186">
   <si>
     <t>Youtube parte 1: criação e otimização de um canal (de 03/02/2021 a 23/02/2021) 8hrs</t>
   </si>
@@ -593,6 +593,12 @@
   </si>
   <si>
     <t>https://github.com/Phelipe-Sempreboni/certificates/blob/main/mackenzie/big-data-brazil-experience-2024/certificado.pdf</t>
+  </si>
+  <si>
+    <t>Databricks: Criando um sistema de recomendação</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/certificate/920be85a-8d7a-467c-9fe2-5322f19ad4a8</t>
   </si>
 </sst>
 </file>
@@ -990,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0F2FFB-C69B-48E5-8D17-73A3C2383ABD}">
   <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3065,14 +3071,30 @@
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="3"/>
+      <c r="B81" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D81" s="2">
+        <v>10</v>
+      </c>
+      <c r="E81" s="3">
+        <v>45622</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I81" s="3">
+        <v>45622</v>
+      </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B82" s="2"/>
@@ -3187,9 +3209,10 @@
     <hyperlink ref="F79" r:id="rId75" xr:uid="{9D016C02-4CC0-4C30-A30B-D8035CB4F7A7}"/>
     <hyperlink ref="F76" r:id="rId76" xr:uid="{4F07E5DB-8917-491D-9EC8-A9B474A4E4B4}"/>
     <hyperlink ref="F80" r:id="rId77" xr:uid="{692DD5FF-CFA7-44B8-91AC-0D9DA0E63A45}"/>
+    <hyperlink ref="F81" r:id="rId78" xr:uid="{2186E8F8-24C2-49C8-96AB-9E80AE6251B6}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId78"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId79"/>
 </worksheet>
 </file>
 

--- a/controle/controle.xlsx
+++ b/controle/controle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheli\Desktop\github\certificates\controle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D093BD92-5035-4DE4-B35D-CD022E4EDE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA23ADA-D727-439D-A3CD-E69191DEBA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="188">
   <si>
     <t>Youtube parte 1: criação e otimização de um canal (de 03/02/2021 a 23/02/2021) 8hrs</t>
   </si>
@@ -599,6 +599,12 @@
   </si>
   <si>
     <t>https://cursos.alura.com.br/certificate/920be85a-8d7a-467c-9fe2-5322f19ad4a8</t>
+  </si>
+  <si>
+    <t>Databricks e Data Factory: criando e orquestrando pipelines na nuvem</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/certificate/6f1e3218-5b1a-4368-9584-36f42cdca0b6</t>
   </si>
 </sst>
 </file>
@@ -997,7 +1003,7 @@
   <dimension ref="A1:J84"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3097,14 +3103,30 @@
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="3"/>
+      <c r="B82" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D82" s="2">
+        <v>10</v>
+      </c>
+      <c r="E82" s="3">
+        <v>45626</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I82" s="3">
+        <v>45626</v>
+      </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B83" s="2"/>
@@ -3210,9 +3232,10 @@
     <hyperlink ref="F76" r:id="rId76" xr:uid="{4F07E5DB-8917-491D-9EC8-A9B474A4E4B4}"/>
     <hyperlink ref="F80" r:id="rId77" xr:uid="{692DD5FF-CFA7-44B8-91AC-0D9DA0E63A45}"/>
     <hyperlink ref="F81" r:id="rId78" xr:uid="{2186E8F8-24C2-49C8-96AB-9E80AE6251B6}"/>
+    <hyperlink ref="F82" r:id="rId79" xr:uid="{10AA283F-6391-4468-9A0D-AFED8A71A51D}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId79"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId80"/>
 </worksheet>
 </file>
 

--- a/controle/controle.xlsx
+++ b/controle/controle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheli\Desktop\github\certificates\controle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA23ADA-D727-439D-A3CD-E69191DEBA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56AF283-F073-4988-87A6-04E7FF140DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Certificados, cursos, badges" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="195">
   <si>
     <t>Youtube parte 1: criação e otimização de um canal (de 03/02/2021 a 23/02/2021) 8hrs</t>
   </si>
@@ -605,6 +605,27 @@
   </si>
   <si>
     <t>https://cursos.alura.com.br/certificate/6f1e3218-5b1a-4368-9584-36f42cdca0b6</t>
+  </si>
+  <si>
+    <t>Dama Internacional</t>
+  </si>
+  <si>
+    <t>CDMP Certification - Associate</t>
+  </si>
+  <si>
+    <t>https://eu.credential.net/a9b175d2-acb1-4e5f-a4a6-5785e9b0063a#acc.OWQTXzoB</t>
+  </si>
+  <si>
+    <t>Data Management Fundamentals</t>
+  </si>
+  <si>
+    <t>https://eu.credential.net/3f073404-f1c7-4350-9d37-4c450e5c394e#acc.QLMwl4je</t>
+  </si>
+  <si>
+    <t>Data Quality Masterclass - The Complete Course</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/certificate/UC-4245b554-cb32-4856-9e51-7fd63c624854/</t>
   </si>
 </sst>
 </file>
@@ -1000,29 +1021,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0F2FFB-C69B-48E5-8D17-73A3C2383ABD}">
-  <dimension ref="A1:J84"/>
+  <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="86.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="77.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="77.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="0.85546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1" hidden="1"/>
+    <col min="9" max="9" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="0.88671875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>26</v>
       </c>
@@ -1048,7 +1069,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>66</v>
       </c>
@@ -1074,7 +1095,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>65</v>
       </c>
@@ -1100,7 +1121,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>65</v>
       </c>
@@ -1126,7 +1147,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>66</v>
       </c>
@@ -1152,7 +1173,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1178,7 +1199,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
@@ -1204,7 +1225,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
@@ -1230,7 +1251,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
@@ -1256,7 +1277,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>66</v>
       </c>
@@ -1282,7 +1303,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
@@ -1308,7 +1329,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
@@ -1334,7 +1355,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
@@ -1360,7 +1381,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
@@ -1386,7 +1407,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
@@ -1412,7 +1433,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
@@ -1438,7 +1459,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
@@ -1464,7 +1485,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>27</v>
       </c>
@@ -1490,7 +1511,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>27</v>
       </c>
@@ -1516,7 +1537,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>27</v>
       </c>
@@ -1542,7 +1563,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>27</v>
       </c>
@@ -1568,7 +1589,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>27</v>
       </c>
@@ -1594,7 +1615,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>27</v>
       </c>
@@ -1620,7 +1641,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
@@ -1646,7 +1667,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>27</v>
       </c>
@@ -1672,7 +1693,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>27</v>
       </c>
@@ -1698,7 +1719,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>66</v>
       </c>
@@ -1724,7 +1745,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>27</v>
       </c>
@@ -1750,7 +1771,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>27</v>
       </c>
@@ -1776,7 +1797,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>27</v>
       </c>
@@ -1802,7 +1823,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>66</v>
       </c>
@@ -1828,7 +1849,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>66</v>
       </c>
@@ -1854,7 +1875,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>66</v>
       </c>
@@ -1880,7 +1901,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>27</v>
       </c>
@@ -1906,7 +1927,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>27</v>
       </c>
@@ -1932,7 +1953,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>27</v>
       </c>
@@ -1958,7 +1979,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>65</v>
       </c>
@@ -1984,7 +2005,7 @@
         <v>44744</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>65</v>
       </c>
@@ -2010,7 +2031,7 @@
         <v>44749</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>27</v>
       </c>
@@ -2036,7 +2057,7 @@
         <v>44753</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>27</v>
       </c>
@@ -2062,7 +2083,7 @@
         <v>44753</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>113</v>
       </c>
@@ -2088,7 +2109,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>113</v>
       </c>
@@ -2114,7 +2135,7 @@
         <v>45104</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>65</v>
       </c>
@@ -2140,7 +2161,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
         <v>27</v>
       </c>
@@ -2166,7 +2187,7 @@
         <v>45151</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
         <v>27</v>
       </c>
@@ -2192,7 +2213,7 @@
         <v>45154</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>96</v>
       </c>
@@ -2218,7 +2239,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
         <v>65</v>
       </c>
@@ -2244,7 +2265,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>102</v>
       </c>
@@ -2270,7 +2291,7 @@
         <v>45227</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>113</v>
       </c>
@@ -2296,7 +2317,7 @@
         <v>45322</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>113</v>
       </c>
@@ -2322,7 +2343,7 @@
         <v>45322</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>113</v>
       </c>
@@ -2348,7 +2369,7 @@
         <v>45322</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
         <v>27</v>
       </c>
@@ -2374,7 +2395,7 @@
         <v>45388</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>27</v>
       </c>
@@ -2400,7 +2421,7 @@
         <v>45388</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
         <v>66</v>
       </c>
@@ -2426,7 +2447,7 @@
         <v>45389</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
         <v>66</v>
       </c>
@@ -2452,7 +2473,7 @@
         <v>45395</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
         <v>27</v>
       </c>
@@ -2478,7 +2499,7 @@
         <v>45396</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
         <v>27</v>
       </c>
@@ -2504,7 +2525,7 @@
         <v>45396</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
         <v>27</v>
       </c>
@@ -2530,7 +2551,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
         <v>27</v>
       </c>
@@ -2556,7 +2577,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
         <v>27</v>
       </c>
@@ -2582,7 +2603,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
         <v>27</v>
       </c>
@@ -2608,7 +2629,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
         <v>27</v>
       </c>
@@ -2634,7 +2655,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
         <v>27</v>
       </c>
@@ -2660,7 +2681,7 @@
         <v>45403</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
         <v>27</v>
       </c>
@@ -2686,7 +2707,7 @@
         <v>45435</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
         <v>27</v>
       </c>
@@ -2712,7 +2733,7 @@
         <v>45440</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
         <v>27</v>
       </c>
@@ -2738,7 +2759,7 @@
         <v>45440</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="2" t="s">
         <v>144</v>
       </c>
@@ -2764,7 +2785,7 @@
         <v>45441</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
         <v>157</v>
       </c>
@@ -2790,7 +2811,7 @@
         <v>45469</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="2" t="s">
         <v>27</v>
       </c>
@@ -2816,7 +2837,7 @@
         <v>45479</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
         <v>27</v>
       </c>
@@ -2842,7 +2863,7 @@
         <v>45494</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
         <v>27</v>
       </c>
@@ -2868,7 +2889,7 @@
         <v>45517</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
         <v>65</v>
       </c>
@@ -2894,7 +2915,7 @@
         <v>45534</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
         <v>65</v>
       </c>
@@ -2920,7 +2941,7 @@
         <v>45536</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
         <v>65</v>
       </c>
@@ -2946,7 +2967,7 @@
         <v>45536</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
         <v>171</v>
       </c>
@@ -2972,7 +2993,7 @@
         <v>45577</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
         <v>172</v>
       </c>
@@ -2998,7 +3019,7 @@
         <v>45580</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="2" t="s">
         <v>172</v>
       </c>
@@ -3024,7 +3045,7 @@
         <v>45584</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="2" t="s">
         <v>172</v>
       </c>
@@ -3050,7 +3071,7 @@
         <v>45584</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="2" t="s">
         <v>181</v>
       </c>
@@ -3076,7 +3097,7 @@
         <v>45621</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="2" t="s">
         <v>27</v>
       </c>
@@ -3102,7 +3123,7 @@
         <v>45622</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
         <v>27</v>
       </c>
@@ -3128,25 +3149,83 @@
         <v>45626</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="3"/>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="3"/>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B83" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D83" s="2">
+        <v>1</v>
+      </c>
+      <c r="E83" s="3">
+        <v>45645</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I83" s="3">
+        <v>45645</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B84" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D84" s="2">
+        <v>1</v>
+      </c>
+      <c r="E84" s="3">
+        <v>45645</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I84" s="3">
+        <v>45645</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B85" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D85" s="2">
+        <v>6</v>
+      </c>
+      <c r="E85" s="3">
+        <v>45298</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I85" s="3">
+        <v>45298</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="B2:I68" xr:uid="{7D0F2FFB-C69B-48E5-8D17-73A3C2383ABD}"/>
@@ -3233,9 +3312,12 @@
     <hyperlink ref="F80" r:id="rId77" xr:uid="{692DD5FF-CFA7-44B8-91AC-0D9DA0E63A45}"/>
     <hyperlink ref="F81" r:id="rId78" xr:uid="{2186E8F8-24C2-49C8-96AB-9E80AE6251B6}"/>
     <hyperlink ref="F82" r:id="rId79" xr:uid="{10AA283F-6391-4468-9A0D-AFED8A71A51D}"/>
+    <hyperlink ref="F83" r:id="rId80" location="acc.OWQTXzoB" xr:uid="{13ACB4CC-8F25-4440-9402-1FDFD70321D2}"/>
+    <hyperlink ref="F84" r:id="rId81" location="acc.QLMwl4je" xr:uid="{8B10AD81-A1B7-4F1A-A46E-16F17DC87CA4}"/>
+    <hyperlink ref="F85" r:id="rId82" xr:uid="{506FEFBF-C6DF-43ED-9F57-15D1066BF44B}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId80"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId83"/>
 </worksheet>
 </file>
 
@@ -3244,26 +3326,26 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="86.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="77.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="77.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="0.85546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1" hidden="1"/>
+    <col min="9" max="9" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="0.88671875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>154</v>
       </c>
@@ -3289,7 +3371,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>150</v>
       </c>
@@ -3315,7 +3397,7 @@
         <v>45467</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>152</v>
       </c>
@@ -3341,7 +3423,7 @@
         <v>45467</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>151</v>
       </c>
@@ -3352,7 +3434,7 @@
         <v>360</v>
       </c>
       <c r="E5" s="3">
-        <v>45597</v>
+        <v>45645</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>149</v>

--- a/controle/controle.xlsx
+++ b/controle/controle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheli\Desktop\github\certificates\controle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56AF283-F073-4988-87A6-04E7FF140DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C92D49-F2BC-458E-B5A5-249D4E8AD1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Certificados, cursos, badges" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="201">
   <si>
     <t>Youtube parte 1: criação e otimização de um canal (de 03/02/2021 a 23/02/2021) 8hrs</t>
   </si>
@@ -626,6 +626,24 @@
   </si>
   <si>
     <t>https://www.udemy.com/certificate/UC-4245b554-cb32-4856-9e51-7fd63c624854/</t>
+  </si>
+  <si>
+    <t>SAP do zero ao profissional</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/certificate/UC-7ae1f4df-235c-4ba5-b588-7e86f157fecc/</t>
+  </si>
+  <si>
+    <t>Certificação Amazon AWS Cloud Practitioner (CLF-C01)</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/certificate/UC-a747e91c-d05d-4407-b369-de65b5d055b5/</t>
+  </si>
+  <si>
+    <t>Certificação Amazon AWS Certified Cloud Practitioner CLF-C02</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/certificate/UC-8a4409a1-3a61-491d-86a9-82db7d5d359f/</t>
   </si>
 </sst>
 </file>
@@ -1021,29 +1039,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0F2FFB-C69B-48E5-8D17-73A3C2383ABD}">
-  <dimension ref="A1:J85"/>
+  <dimension ref="A1:J88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+    <sheetView showGridLines="0" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="86.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="77.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="77.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="0.88671875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1" hidden="1"/>
+    <col min="9" max="9" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="0.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>26</v>
       </c>
@@ -1069,7 +1087,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>66</v>
       </c>
@@ -1095,7 +1113,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>65</v>
       </c>
@@ -1121,7 +1139,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>65</v>
       </c>
@@ -1147,7 +1165,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>66</v>
       </c>
@@ -1173,7 +1191,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1199,7 +1217,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
@@ -1225,7 +1243,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
@@ -1251,7 +1269,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
@@ -1277,7 +1295,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>66</v>
       </c>
@@ -1303,7 +1321,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
@@ -1329,7 +1347,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
@@ -1355,7 +1373,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
@@ -1381,7 +1399,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
@@ -1407,7 +1425,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
@@ -1433,7 +1451,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
@@ -1459,7 +1477,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
@@ -1485,7 +1503,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>27</v>
       </c>
@@ -1511,7 +1529,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>27</v>
       </c>
@@ -1537,7 +1555,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>27</v>
       </c>
@@ -1563,7 +1581,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>27</v>
       </c>
@@ -1589,7 +1607,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>27</v>
       </c>
@@ -1615,7 +1633,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>27</v>
       </c>
@@ -1641,7 +1659,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
@@ -1667,7 +1685,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>27</v>
       </c>
@@ -1693,7 +1711,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>27</v>
       </c>
@@ -1719,7 +1737,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>66</v>
       </c>
@@ -1745,7 +1763,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>27</v>
       </c>
@@ -1771,7 +1789,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>27</v>
       </c>
@@ -1797,7 +1815,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>27</v>
       </c>
@@ -1823,7 +1841,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>66</v>
       </c>
@@ -1849,7 +1867,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>66</v>
       </c>
@@ -1875,7 +1893,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>66</v>
       </c>
@@ -1901,7 +1919,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
         <v>27</v>
       </c>
@@ -1927,7 +1945,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
         <v>27</v>
       </c>
@@ -1953,7 +1971,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>27</v>
       </c>
@@ -1979,7 +1997,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>65</v>
       </c>
@@ -2005,7 +2023,7 @@
         <v>44744</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
         <v>65</v>
       </c>
@@ -2031,7 +2049,7 @@
         <v>44749</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
         <v>27</v>
       </c>
@@ -2057,7 +2075,7 @@
         <v>44753</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
         <v>27</v>
       </c>
@@ -2083,7 +2101,7 @@
         <v>44753</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
         <v>113</v>
       </c>
@@ -2109,7 +2127,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
         <v>113</v>
       </c>
@@ -2135,7 +2153,7 @@
         <v>45104</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
         <v>65</v>
       </c>
@@ -2161,7 +2179,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
         <v>27</v>
       </c>
@@ -2187,7 +2205,7 @@
         <v>45151</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
         <v>27</v>
       </c>
@@ -2213,7 +2231,7 @@
         <v>45154</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B47" s="2" t="s">
         <v>96</v>
       </c>
@@ -2239,7 +2257,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
         <v>65</v>
       </c>
@@ -2265,7 +2283,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
         <v>102</v>
       </c>
@@ -2291,7 +2309,7 @@
         <v>45227</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
         <v>113</v>
       </c>
@@ -2317,7 +2335,7 @@
         <v>45322</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
         <v>113</v>
       </c>
@@ -2343,7 +2361,7 @@
         <v>45322</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
         <v>113</v>
       </c>
@@ -2369,7 +2387,7 @@
         <v>45322</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
         <v>27</v>
       </c>
@@ -2395,7 +2413,7 @@
         <v>45388</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
         <v>27</v>
       </c>
@@ -2421,7 +2439,7 @@
         <v>45388</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
         <v>66</v>
       </c>
@@ -2447,7 +2465,7 @@
         <v>45389</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
         <v>66</v>
       </c>
@@ -2473,7 +2491,7 @@
         <v>45395</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
         <v>27</v>
       </c>
@@ -2499,7 +2517,7 @@
         <v>45396</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
         <v>27</v>
       </c>
@@ -2525,7 +2543,7 @@
         <v>45396</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
         <v>27</v>
       </c>
@@ -2551,7 +2569,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
         <v>27</v>
       </c>
@@ -2577,7 +2595,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
         <v>27</v>
       </c>
@@ -2603,7 +2621,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
         <v>27</v>
       </c>
@@ -2629,7 +2647,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
         <v>27</v>
       </c>
@@ -2655,7 +2673,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
         <v>27</v>
       </c>
@@ -2681,7 +2699,7 @@
         <v>45403</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B65" s="2" t="s">
         <v>27</v>
       </c>
@@ -2707,7 +2725,7 @@
         <v>45435</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B66" s="2" t="s">
         <v>27</v>
       </c>
@@ -2733,7 +2751,7 @@
         <v>45440</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B67" s="2" t="s">
         <v>27</v>
       </c>
@@ -2759,7 +2777,7 @@
         <v>45440</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
         <v>144</v>
       </c>
@@ -2785,7 +2803,7 @@
         <v>45441</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
         <v>157</v>
       </c>
@@ -2811,7 +2829,7 @@
         <v>45469</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B70" s="2" t="s">
         <v>27</v>
       </c>
@@ -2837,7 +2855,7 @@
         <v>45479</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B71" s="2" t="s">
         <v>27</v>
       </c>
@@ -2863,7 +2881,7 @@
         <v>45494</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B72" s="2" t="s">
         <v>27</v>
       </c>
@@ -2889,7 +2907,7 @@
         <v>45517</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B73" s="2" t="s">
         <v>65</v>
       </c>
@@ -2915,7 +2933,7 @@
         <v>45534</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B74" s="2" t="s">
         <v>65</v>
       </c>
@@ -2941,7 +2959,7 @@
         <v>45536</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B75" s="2" t="s">
         <v>65</v>
       </c>
@@ -2967,7 +2985,7 @@
         <v>45536</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B76" s="2" t="s">
         <v>171</v>
       </c>
@@ -2993,7 +3011,7 @@
         <v>45577</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B77" s="2" t="s">
         <v>172</v>
       </c>
@@ -3019,7 +3037,7 @@
         <v>45580</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B78" s="2" t="s">
         <v>172</v>
       </c>
@@ -3045,7 +3063,7 @@
         <v>45584</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B79" s="2" t="s">
         <v>172</v>
       </c>
@@ -3071,7 +3089,7 @@
         <v>45584</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B80" s="2" t="s">
         <v>181</v>
       </c>
@@ -3097,7 +3115,7 @@
         <v>45621</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B81" s="2" t="s">
         <v>27</v>
       </c>
@@ -3123,7 +3141,7 @@
         <v>45622</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B82" s="2" t="s">
         <v>27</v>
       </c>
@@ -3149,7 +3167,7 @@
         <v>45626</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B83" s="2" t="s">
         <v>188</v>
       </c>
@@ -3175,7 +3193,7 @@
         <v>45645</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B84" s="2" t="s">
         <v>188</v>
       </c>
@@ -3201,7 +3219,7 @@
         <v>45645</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B85" s="2" t="s">
         <v>66</v>
       </c>
@@ -3225,6 +3243,84 @@
       </c>
       <c r="I85" s="3">
         <v>45298</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B86" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D86" s="2">
+        <v>50</v>
+      </c>
+      <c r="E86" s="3">
+        <v>45690</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I86" s="3">
+        <v>45690</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B87" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D87" s="2">
+        <v>13</v>
+      </c>
+      <c r="E87" s="3">
+        <v>45690</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I87" s="3">
+        <v>45690</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B88" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D88" s="2">
+        <v>16</v>
+      </c>
+      <c r="E88" s="3">
+        <v>45690</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I88" s="3">
+        <v>45690</v>
       </c>
     </row>
   </sheetData>
@@ -3315,9 +3411,12 @@
     <hyperlink ref="F83" r:id="rId80" location="acc.OWQTXzoB" xr:uid="{13ACB4CC-8F25-4440-9402-1FDFD70321D2}"/>
     <hyperlink ref="F84" r:id="rId81" location="acc.QLMwl4je" xr:uid="{8B10AD81-A1B7-4F1A-A46E-16F17DC87CA4}"/>
     <hyperlink ref="F85" r:id="rId82" xr:uid="{506FEFBF-C6DF-43ED-9F57-15D1066BF44B}"/>
+    <hyperlink ref="F86" r:id="rId83" xr:uid="{9C5C8761-BC96-46D7-873F-4981142F502D}"/>
+    <hyperlink ref="F87" r:id="rId84" xr:uid="{3DF6529D-C110-4B63-92F4-A3AE03761F24}"/>
+    <hyperlink ref="F88" r:id="rId85" xr:uid="{0810E4BC-9705-4D9D-BCCF-D4E3E249C24F}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId83"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId86"/>
 </worksheet>
 </file>
 
@@ -3325,27 +3424,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2E6427-F1D9-4BBB-9AE6-87A9017765C2}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="86.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="77.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="77.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="0.88671875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1" hidden="1"/>
+    <col min="9" max="9" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="0.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>154</v>
       </c>
@@ -3371,7 +3470,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>150</v>
       </c>
@@ -3397,7 +3496,7 @@
         <v>45467</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>152</v>
       </c>
@@ -3423,7 +3522,7 @@
         <v>45467</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>151</v>
       </c>

--- a/controle/controle.xlsx
+++ b/controle/controle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheli\Desktop\github\certificates\controle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C92D49-F2BC-458E-B5A5-249D4E8AD1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FC9583-7A87-45DD-BF53-F9E63D013DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Certificados, cursos, badges" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="203">
   <si>
     <t>Youtube parte 1: criação e otimização de um canal (de 03/02/2021 a 23/02/2021) 8hrs</t>
   </si>
@@ -644,6 +644,12 @@
   </si>
   <si>
     <t>https://www.udemy.com/certificate/UC-8a4409a1-3a61-491d-86a9-82db7d5d359f/</t>
+  </si>
+  <si>
+    <t>Databricks: construindo pipelines de dados com Airflow e Azure Databricks</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/certificate/b2e572c1-96d7-44f0-be2d-419a29be2daa</t>
   </si>
 </sst>
 </file>
@@ -1039,10 +1045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0F2FFB-C69B-48E5-8D17-73A3C2383ABD}">
-  <dimension ref="A1:J88"/>
+  <dimension ref="A1:J89"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3321,6 +3327,32 @@
       </c>
       <c r="I88" s="3">
         <v>45690</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B89" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D89" s="2">
+        <v>10</v>
+      </c>
+      <c r="E89" s="3">
+        <v>45692</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I89" s="3">
+        <v>45692</v>
       </c>
     </row>
   </sheetData>
@@ -3414,9 +3446,10 @@
     <hyperlink ref="F86" r:id="rId83" xr:uid="{9C5C8761-BC96-46D7-873F-4981142F502D}"/>
     <hyperlink ref="F87" r:id="rId84" xr:uid="{3DF6529D-C110-4B63-92F4-A3AE03761F24}"/>
     <hyperlink ref="F88" r:id="rId85" xr:uid="{0810E4BC-9705-4D9D-BCCF-D4E3E249C24F}"/>
+    <hyperlink ref="F89" r:id="rId86" xr:uid="{D6F32CF5-0B1A-4A77-A08A-6DFBB2ADC077}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId86"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId87"/>
 </worksheet>
 </file>
 
@@ -3424,7 +3457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2E6427-F1D9-4BBB-9AE6-87A9017765C2}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>

--- a/controle/controle.xlsx
+++ b/controle/controle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheli\Desktop\github\certificates\controle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FC9583-7A87-45DD-BF53-F9E63D013DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C809F4AB-A72A-4A9E-B2C5-7DF5963E4E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Certificados, cursos, badges" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="205">
   <si>
     <t>Youtube parte 1: criação e otimização de um canal (de 03/02/2021 a 23/02/2021) 8hrs</t>
   </si>
@@ -650,6 +650,12 @@
   </si>
   <si>
     <t>https://cursos.alura.com.br/certificate/b2e572c1-96d7-44f0-be2d-419a29be2daa</t>
+  </si>
+  <si>
+    <t>CDMP Data Quality Specialist</t>
+  </si>
+  <si>
+    <t>https://eu.credential.net/6741545f-db58-4689-8214-9d93e435b6ca#acc.19plQsUM</t>
   </si>
 </sst>
 </file>
@@ -1045,29 +1051,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0F2FFB-C69B-48E5-8D17-73A3C2383ABD}">
-  <dimension ref="A1:J89"/>
+  <dimension ref="A1:J90"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="86.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="77.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="77.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="0.85546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1" hidden="1"/>
+    <col min="9" max="9" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="0.88671875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>26</v>
       </c>
@@ -1093,7 +1099,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>66</v>
       </c>
@@ -1119,7 +1125,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>65</v>
       </c>
@@ -1145,7 +1151,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>65</v>
       </c>
@@ -1171,7 +1177,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>66</v>
       </c>
@@ -1197,7 +1203,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1223,7 +1229,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
@@ -1249,7 +1255,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
@@ -1275,7 +1281,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
@@ -1301,7 +1307,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>66</v>
       </c>
@@ -1327,7 +1333,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
@@ -1353,7 +1359,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
@@ -1379,7 +1385,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
@@ -1405,7 +1411,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
@@ -1431,7 +1437,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
@@ -1457,7 +1463,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
@@ -1483,7 +1489,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
@@ -1509,7 +1515,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>27</v>
       </c>
@@ -1535,7 +1541,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>27</v>
       </c>
@@ -1561,7 +1567,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>27</v>
       </c>
@@ -1587,7 +1593,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>27</v>
       </c>
@@ -1613,7 +1619,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>27</v>
       </c>
@@ -1639,7 +1645,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>27</v>
       </c>
@@ -1665,7 +1671,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
@@ -1691,7 +1697,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>27</v>
       </c>
@@ -1717,7 +1723,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>27</v>
       </c>
@@ -1743,7 +1749,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>66</v>
       </c>
@@ -1769,7 +1775,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>27</v>
       </c>
@@ -1795,7 +1801,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>27</v>
       </c>
@@ -1821,7 +1827,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>27</v>
       </c>
@@ -1847,7 +1853,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>66</v>
       </c>
@@ -1873,7 +1879,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>66</v>
       </c>
@@ -1899,7 +1905,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>66</v>
       </c>
@@ -1925,7 +1931,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>27</v>
       </c>
@@ -1951,7 +1957,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>27</v>
       </c>
@@ -1977,7 +1983,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>27</v>
       </c>
@@ -2003,7 +2009,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>65</v>
       </c>
@@ -2029,7 +2035,7 @@
         <v>44744</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>65</v>
       </c>
@@ -2055,7 +2061,7 @@
         <v>44749</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>27</v>
       </c>
@@ -2081,7 +2087,7 @@
         <v>44753</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>27</v>
       </c>
@@ -2107,7 +2113,7 @@
         <v>44753</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>113</v>
       </c>
@@ -2133,7 +2139,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>113</v>
       </c>
@@ -2159,7 +2165,7 @@
         <v>45104</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>65</v>
       </c>
@@ -2185,7 +2191,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
         <v>27</v>
       </c>
@@ -2211,7 +2217,7 @@
         <v>45151</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
         <v>27</v>
       </c>
@@ -2237,7 +2243,7 @@
         <v>45154</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>96</v>
       </c>
@@ -2263,7 +2269,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
         <v>65</v>
       </c>
@@ -2289,7 +2295,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>102</v>
       </c>
@@ -2315,7 +2321,7 @@
         <v>45227</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>113</v>
       </c>
@@ -2341,7 +2347,7 @@
         <v>45322</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>113</v>
       </c>
@@ -2367,7 +2373,7 @@
         <v>45322</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>113</v>
       </c>
@@ -2393,7 +2399,7 @@
         <v>45322</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
         <v>27</v>
       </c>
@@ -2419,7 +2425,7 @@
         <v>45388</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>27</v>
       </c>
@@ -2445,7 +2451,7 @@
         <v>45388</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
         <v>66</v>
       </c>
@@ -2471,7 +2477,7 @@
         <v>45389</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
         <v>66</v>
       </c>
@@ -2497,7 +2503,7 @@
         <v>45395</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
         <v>27</v>
       </c>
@@ -2523,7 +2529,7 @@
         <v>45396</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
         <v>27</v>
       </c>
@@ -2549,7 +2555,7 @@
         <v>45396</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
         <v>27</v>
       </c>
@@ -2575,7 +2581,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
         <v>27</v>
       </c>
@@ -2601,7 +2607,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
         <v>27</v>
       </c>
@@ -2627,7 +2633,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
         <v>27</v>
       </c>
@@ -2653,7 +2659,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
         <v>27</v>
       </c>
@@ -2679,7 +2685,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
         <v>27</v>
       </c>
@@ -2705,7 +2711,7 @@
         <v>45403</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
         <v>27</v>
       </c>
@@ -2731,7 +2737,7 @@
         <v>45435</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
         <v>27</v>
       </c>
@@ -2757,7 +2763,7 @@
         <v>45440</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
         <v>27</v>
       </c>
@@ -2783,7 +2789,7 @@
         <v>45440</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="2" t="s">
         <v>144</v>
       </c>
@@ -2809,7 +2815,7 @@
         <v>45441</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
         <v>157</v>
       </c>
@@ -2835,7 +2841,7 @@
         <v>45469</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="2" t="s">
         <v>27</v>
       </c>
@@ -2861,7 +2867,7 @@
         <v>45479</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
         <v>27</v>
       </c>
@@ -2887,7 +2893,7 @@
         <v>45494</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
         <v>27</v>
       </c>
@@ -2913,7 +2919,7 @@
         <v>45517</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
         <v>65</v>
       </c>
@@ -2939,7 +2945,7 @@
         <v>45534</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
         <v>65</v>
       </c>
@@ -2965,7 +2971,7 @@
         <v>45536</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
         <v>65</v>
       </c>
@@ -2991,7 +2997,7 @@
         <v>45536</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
         <v>171</v>
       </c>
@@ -3017,7 +3023,7 @@
         <v>45577</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
         <v>172</v>
       </c>
@@ -3043,7 +3049,7 @@
         <v>45580</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="2" t="s">
         <v>172</v>
       </c>
@@ -3069,7 +3075,7 @@
         <v>45584</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="2" t="s">
         <v>172</v>
       </c>
@@ -3095,7 +3101,7 @@
         <v>45584</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="2" t="s">
         <v>181</v>
       </c>
@@ -3121,7 +3127,7 @@
         <v>45621</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="2" t="s">
         <v>27</v>
       </c>
@@ -3147,7 +3153,7 @@
         <v>45622</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
         <v>27</v>
       </c>
@@ -3173,7 +3179,7 @@
         <v>45626</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="2" t="s">
         <v>188</v>
       </c>
@@ -3199,7 +3205,7 @@
         <v>45645</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="2" t="s">
         <v>188</v>
       </c>
@@ -3225,7 +3231,7 @@
         <v>45645</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="2" t="s">
         <v>66</v>
       </c>
@@ -3251,7 +3257,7 @@
         <v>45298</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="2" t="s">
         <v>66</v>
       </c>
@@ -3277,7 +3283,7 @@
         <v>45690</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" s="2" t="s">
         <v>66</v>
       </c>
@@ -3303,7 +3309,7 @@
         <v>45690</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="2" t="s">
         <v>66</v>
       </c>
@@ -3329,7 +3335,7 @@
         <v>45690</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" s="2" t="s">
         <v>27</v>
       </c>
@@ -3352,6 +3358,32 @@
         <v>28</v>
       </c>
       <c r="I89" s="3">
+        <v>45692</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B90" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D90" s="2">
+        <v>1</v>
+      </c>
+      <c r="E90" s="3">
+        <v>45692</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I90" s="3">
         <v>45692</v>
       </c>
     </row>
@@ -3447,9 +3479,10 @@
     <hyperlink ref="F87" r:id="rId84" xr:uid="{3DF6529D-C110-4B63-92F4-A3AE03761F24}"/>
     <hyperlink ref="F88" r:id="rId85" xr:uid="{0810E4BC-9705-4D9D-BCCF-D4E3E249C24F}"/>
     <hyperlink ref="F89" r:id="rId86" xr:uid="{D6F32CF5-0B1A-4A77-A08A-6DFBB2ADC077}"/>
+    <hyperlink ref="F90" r:id="rId87" location="acc.19plQsUM" xr:uid="{202E8C83-2C39-40DF-9A06-FC625D0E1E37}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId87"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId88"/>
 </worksheet>
 </file>
 
@@ -3461,23 +3494,23 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="86.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="77.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="77.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="0.85546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1" hidden="1"/>
+    <col min="9" max="9" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="0.88671875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>154</v>
       </c>
@@ -3503,7 +3536,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>150</v>
       </c>
@@ -3529,7 +3562,7 @@
         <v>45467</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>152</v>
       </c>
@@ -3555,7 +3588,7 @@
         <v>45467</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>151</v>
       </c>

--- a/controle/controle.xlsx
+++ b/controle/controle.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheli\Desktop\github\certificates\controle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C809F4AB-A72A-4A9E-B2C5-7DF5963E4E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56E16D1-8CE5-4EBE-89E0-AB6D6C484081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="211">
   <si>
     <t>Youtube parte 1: criação e otimização de um canal (de 03/02/2021 a 23/02/2021) 8hrs</t>
   </si>
@@ -656,6 +656,24 @@
   </si>
   <si>
     <t>https://eu.credential.net/6741545f-db58-4689-8214-9d93e435b6ca#acc.19plQsUM</t>
+  </si>
+  <si>
+    <t>Data Governance - The Complete Course for Beginners</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/certificate/UC-adc2168e-81f1-45c9-be8a-df6a70772ae0/</t>
+  </si>
+  <si>
+    <t>CDMP Specialist Exam Notes &amp; Practice Questions Data Quality</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/certificate/UC-3d584eb9-7d50-47ac-bcd8-f57bca60910d/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/certificate/UC-21f3f67c-238e-47bc-be8a-1a7627df2a87/</t>
+  </si>
+  <si>
+    <t>Como estabelecer e analisar indicadores de desempenho (KPI)</t>
   </si>
 </sst>
 </file>
@@ -1051,10 +1069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0F2FFB-C69B-48E5-8D17-73A3C2383ABD}">
-  <dimension ref="A1:J90"/>
+  <dimension ref="A1:J93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C66" workbookViewId="0">
+      <selection activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -3385,6 +3403,84 @@
       </c>
       <c r="I90" s="3">
         <v>45692</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B91" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D91" s="2">
+        <v>5</v>
+      </c>
+      <c r="E91" s="3">
+        <v>45711</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I91" s="3">
+        <v>45711</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B92" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D92" s="2">
+        <v>3</v>
+      </c>
+      <c r="E92" s="3">
+        <v>45711</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I92" s="3">
+        <v>45711</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B93" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D93" s="2">
+        <v>5</v>
+      </c>
+      <c r="E93" s="3">
+        <v>45711</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I93" s="3">
+        <v>45711</v>
       </c>
     </row>
   </sheetData>
@@ -3480,9 +3576,12 @@
     <hyperlink ref="F88" r:id="rId85" xr:uid="{0810E4BC-9705-4D9D-BCCF-D4E3E249C24F}"/>
     <hyperlink ref="F89" r:id="rId86" xr:uid="{D6F32CF5-0B1A-4A77-A08A-6DFBB2ADC077}"/>
     <hyperlink ref="F90" r:id="rId87" location="acc.19plQsUM" xr:uid="{202E8C83-2C39-40DF-9A06-FC625D0E1E37}"/>
+    <hyperlink ref="F91" r:id="rId88" xr:uid="{626D8F4E-9BD5-4038-825A-CB72F56D17EB}"/>
+    <hyperlink ref="F92" r:id="rId89" xr:uid="{E5E1F000-27DE-40E1-B6E7-91B4245B16B8}"/>
+    <hyperlink ref="F93" r:id="rId90" xr:uid="{C0D6DFF0-7394-4496-B003-00459F2B26DA}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId88"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId91"/>
 </worksheet>
 </file>
 

--- a/controle/controle.xlsx
+++ b/controle/controle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheli\Desktop\github\certificates\controle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56E16D1-8CE5-4EBE-89E0-AB6D6C484081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C45F816-4D87-4889-AB5F-05CA826570E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Certificados, cursos, badges" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="213">
   <si>
     <t>Youtube parte 1: criação e otimização de um canal (de 03/02/2021 a 23/02/2021) 8hrs</t>
   </si>
@@ -674,6 +674,12 @@
   </si>
   <si>
     <t>Como estabelecer e analisar indicadores de desempenho (KPI)</t>
+  </si>
+  <si>
+    <t>CDMP Data Governance Specialist</t>
+  </si>
+  <si>
+    <t>https://eu.credential.net/9c3c04f0-9c1f-4d7c-bfb7-7b740c6db5fb#acc.qoPhQyrb</t>
   </si>
 </sst>
 </file>
@@ -1069,29 +1075,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0F2FFB-C69B-48E5-8D17-73A3C2383ABD}">
-  <dimension ref="A1:J93"/>
+  <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C66" workbookViewId="0">
-      <selection activeCell="F93" sqref="F93"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="86.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="77.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="77.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="0.88671875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1" hidden="1"/>
+    <col min="9" max="9" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="0.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>26</v>
       </c>
@@ -1117,7 +1123,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>66</v>
       </c>
@@ -1143,7 +1149,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>65</v>
       </c>
@@ -1169,7 +1175,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>65</v>
       </c>
@@ -1195,7 +1201,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>66</v>
       </c>
@@ -1221,7 +1227,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1247,7 +1253,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
@@ -1273,7 +1279,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
@@ -1299,7 +1305,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
@@ -1325,7 +1331,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>66</v>
       </c>
@@ -1351,7 +1357,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
@@ -1377,7 +1383,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
@@ -1403,7 +1409,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
@@ -1429,7 +1435,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
@@ -1455,7 +1461,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
@@ -1481,7 +1487,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
@@ -1507,7 +1513,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
@@ -1533,7 +1539,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>27</v>
       </c>
@@ -1559,7 +1565,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>27</v>
       </c>
@@ -1585,7 +1591,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>27</v>
       </c>
@@ -1611,7 +1617,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>27</v>
       </c>
@@ -1637,7 +1643,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>27</v>
       </c>
@@ -1663,7 +1669,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>27</v>
       </c>
@@ -1689,7 +1695,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
@@ -1715,7 +1721,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>27</v>
       </c>
@@ -1741,7 +1747,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>27</v>
       </c>
@@ -1767,7 +1773,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>66</v>
       </c>
@@ -1793,7 +1799,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>27</v>
       </c>
@@ -1819,7 +1825,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>27</v>
       </c>
@@ -1845,7 +1851,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>27</v>
       </c>
@@ -1871,7 +1877,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>66</v>
       </c>
@@ -1897,7 +1903,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>66</v>
       </c>
@@ -1923,7 +1929,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>66</v>
       </c>
@@ -1949,7 +1955,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
         <v>27</v>
       </c>
@@ -1975,7 +1981,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
         <v>27</v>
       </c>
@@ -2001,7 +2007,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>27</v>
       </c>
@@ -2027,7 +2033,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>65</v>
       </c>
@@ -2053,7 +2059,7 @@
         <v>44744</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
         <v>65</v>
       </c>
@@ -2079,7 +2085,7 @@
         <v>44749</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
         <v>27</v>
       </c>
@@ -2105,7 +2111,7 @@
         <v>44753</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
         <v>27</v>
       </c>
@@ -2131,7 +2137,7 @@
         <v>44753</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
         <v>113</v>
       </c>
@@ -2157,7 +2163,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
         <v>113</v>
       </c>
@@ -2183,7 +2189,7 @@
         <v>45104</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
         <v>65</v>
       </c>
@@ -2209,7 +2215,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
         <v>27</v>
       </c>
@@ -2235,7 +2241,7 @@
         <v>45151</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
         <v>27</v>
       </c>
@@ -2261,7 +2267,7 @@
         <v>45154</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B47" s="2" t="s">
         <v>96</v>
       </c>
@@ -2287,7 +2293,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
         <v>65</v>
       </c>
@@ -2313,7 +2319,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
         <v>102</v>
       </c>
@@ -2339,7 +2345,7 @@
         <v>45227</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
         <v>113</v>
       </c>
@@ -2365,7 +2371,7 @@
         <v>45322</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
         <v>113</v>
       </c>
@@ -2391,7 +2397,7 @@
         <v>45322</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
         <v>113</v>
       </c>
@@ -2417,7 +2423,7 @@
         <v>45322</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
         <v>27</v>
       </c>
@@ -2443,7 +2449,7 @@
         <v>45388</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
         <v>27</v>
       </c>
@@ -2469,7 +2475,7 @@
         <v>45388</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
         <v>66</v>
       </c>
@@ -2495,7 +2501,7 @@
         <v>45389</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
         <v>66</v>
       </c>
@@ -2521,7 +2527,7 @@
         <v>45395</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
         <v>27</v>
       </c>
@@ -2547,7 +2553,7 @@
         <v>45396</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
         <v>27</v>
       </c>
@@ -2573,7 +2579,7 @@
         <v>45396</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
         <v>27</v>
       </c>
@@ -2599,7 +2605,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
         <v>27</v>
       </c>
@@ -2625,7 +2631,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
         <v>27</v>
       </c>
@@ -2651,7 +2657,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
         <v>27</v>
       </c>
@@ -2677,7 +2683,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
         <v>27</v>
       </c>
@@ -2703,7 +2709,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
         <v>27</v>
       </c>
@@ -2729,7 +2735,7 @@
         <v>45403</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B65" s="2" t="s">
         <v>27</v>
       </c>
@@ -2755,7 +2761,7 @@
         <v>45435</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B66" s="2" t="s">
         <v>27</v>
       </c>
@@ -2781,7 +2787,7 @@
         <v>45440</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B67" s="2" t="s">
         <v>27</v>
       </c>
@@ -2807,7 +2813,7 @@
         <v>45440</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
         <v>144</v>
       </c>
@@ -2833,7 +2839,7 @@
         <v>45441</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
         <v>157</v>
       </c>
@@ -2859,7 +2865,7 @@
         <v>45469</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B70" s="2" t="s">
         <v>27</v>
       </c>
@@ -2885,7 +2891,7 @@
         <v>45479</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B71" s="2" t="s">
         <v>27</v>
       </c>
@@ -2911,7 +2917,7 @@
         <v>45494</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B72" s="2" t="s">
         <v>27</v>
       </c>
@@ -2937,7 +2943,7 @@
         <v>45517</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B73" s="2" t="s">
         <v>65</v>
       </c>
@@ -2963,7 +2969,7 @@
         <v>45534</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B74" s="2" t="s">
         <v>65</v>
       </c>
@@ -2989,7 +2995,7 @@
         <v>45536</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B75" s="2" t="s">
         <v>65</v>
       </c>
@@ -3015,7 +3021,7 @@
         <v>45536</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B76" s="2" t="s">
         <v>171</v>
       </c>
@@ -3041,7 +3047,7 @@
         <v>45577</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B77" s="2" t="s">
         <v>172</v>
       </c>
@@ -3067,7 +3073,7 @@
         <v>45580</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B78" s="2" t="s">
         <v>172</v>
       </c>
@@ -3093,7 +3099,7 @@
         <v>45584</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B79" s="2" t="s">
         <v>172</v>
       </c>
@@ -3119,7 +3125,7 @@
         <v>45584</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B80" s="2" t="s">
         <v>181</v>
       </c>
@@ -3145,7 +3151,7 @@
         <v>45621</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B81" s="2" t="s">
         <v>27</v>
       </c>
@@ -3171,7 +3177,7 @@
         <v>45622</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B82" s="2" t="s">
         <v>27</v>
       </c>
@@ -3197,7 +3203,7 @@
         <v>45626</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B83" s="2" t="s">
         <v>188</v>
       </c>
@@ -3223,7 +3229,7 @@
         <v>45645</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B84" s="2" t="s">
         <v>188</v>
       </c>
@@ -3249,7 +3255,7 @@
         <v>45645</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B85" s="2" t="s">
         <v>66</v>
       </c>
@@ -3275,7 +3281,7 @@
         <v>45298</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B86" s="2" t="s">
         <v>66</v>
       </c>
@@ -3301,7 +3307,7 @@
         <v>45690</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B87" s="2" t="s">
         <v>66</v>
       </c>
@@ -3327,7 +3333,7 @@
         <v>45690</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B88" s="2" t="s">
         <v>66</v>
       </c>
@@ -3353,7 +3359,7 @@
         <v>45690</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B89" s="2" t="s">
         <v>27</v>
       </c>
@@ -3379,7 +3385,7 @@
         <v>45692</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B90" s="2" t="s">
         <v>188</v>
       </c>
@@ -3405,7 +3411,7 @@
         <v>45692</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B91" s="2" t="s">
         <v>66</v>
       </c>
@@ -3431,7 +3437,7 @@
         <v>45711</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B92" s="2" t="s">
         <v>66</v>
       </c>
@@ -3457,7 +3463,7 @@
         <v>45711</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B93" s="2" t="s">
         <v>66</v>
       </c>
@@ -3481,6 +3487,32 @@
       </c>
       <c r="I93" s="3">
         <v>45711</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B94" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D94" s="2">
+        <v>1</v>
+      </c>
+      <c r="E94" s="3">
+        <v>45766</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I94" s="3">
+        <v>45766</v>
       </c>
     </row>
   </sheetData>
@@ -3579,9 +3611,10 @@
     <hyperlink ref="F91" r:id="rId88" xr:uid="{626D8F4E-9BD5-4038-825A-CB72F56D17EB}"/>
     <hyperlink ref="F92" r:id="rId89" xr:uid="{E5E1F000-27DE-40E1-B6E7-91B4245B16B8}"/>
     <hyperlink ref="F93" r:id="rId90" xr:uid="{C0D6DFF0-7394-4496-B003-00459F2B26DA}"/>
+    <hyperlink ref="F94" r:id="rId91" location="acc.qoPhQyrb" xr:uid="{C0AA55BB-BB9C-4067-81F7-112117003AFC}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId91"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId92"/>
 </worksheet>
 </file>
 
@@ -3593,23 +3626,23 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="86.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="77.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="77.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="0.88671875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1" hidden="1"/>
+    <col min="9" max="9" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="0.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>154</v>
       </c>
@@ -3635,7 +3668,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>150</v>
       </c>
@@ -3661,7 +3694,7 @@
         <v>45467</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>152</v>
       </c>
@@ -3687,7 +3720,7 @@
         <v>45467</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>151</v>
       </c>

--- a/controle/controle.xlsx
+++ b/controle/controle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheli\Desktop\github\certificates\controle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C45F816-4D87-4889-AB5F-05CA826570E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C779EEEA-3537-4524-8AC6-04C9E0CEE79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Certificados, cursos, badges" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="214">
   <si>
     <t>Youtube parte 1: criação e otimização de um canal (de 03/02/2021 a 23/02/2021) 8hrs</t>
   </si>
@@ -680,6 +680,9 @@
   </si>
   <si>
     <t>https://eu.credential.net/9c3c04f0-9c1f-4d7c-bfb7-7b740c6db5fb#acc.qoPhQyrb</t>
+  </si>
+  <si>
+    <t>Pós-Graduação em Engenharia de Dados</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0F2FFB-C69B-48E5-8D17-73A3C2383ABD}">
   <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -3620,10 +3623,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2E6427-F1D9-4BBB-9AE6-87A9017765C2}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3746,6 +3749,32 @@
         <v>45467</v>
       </c>
     </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D6" s="2">
+        <v>424</v>
+      </c>
+      <c r="E6" s="3">
+        <v>45991</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="3">
+        <v>45785</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B2:I4" xr:uid="{7D0F2FFB-C69B-48E5-8D17-73A3C2383ABD}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/controle/controle.xlsx
+++ b/controle/controle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheli\Desktop\github\certificates\controle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C779EEEA-3537-4524-8AC6-04C9E0CEE79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720D6CB4-E927-49D3-AFDF-C74E2257BB1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Certificados, cursos, badges" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="216">
   <si>
     <t>Youtube parte 1: criação e otimização de um canal (de 03/02/2021 a 23/02/2021) 8hrs</t>
   </si>
@@ -683,6 +683,12 @@
   </si>
   <si>
     <t>Pós-Graduação em Engenharia de Dados</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://mycourse.app/ZoePUK1spqgl4KoZE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DuckDB e Firecrawl Para Database e Web Scraping Analytics (Artificial Intelligence and AI Agents)</t>
   </si>
 </sst>
 </file>
@@ -757,12 +763,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1078,10 +1087,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0F2FFB-C69B-48E5-8D17-73A3C2383ABD}">
-  <dimension ref="A1:J94"/>
+  <dimension ref="A1:J98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3517,6 +3526,35 @@
       <c r="I94" s="3">
         <v>45766</v>
       </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B95" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D95" s="2">
+        <v>8</v>
+      </c>
+      <c r="E95" s="3">
+        <v>45789</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I95" s="3">
+        <v>45789</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C98" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:I68" xr:uid="{7D0F2FFB-C69B-48E5-8D17-73A3C2383ABD}"/>
@@ -3625,7 +3663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2E6427-F1D9-4BBB-9AE6-87A9017765C2}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/controle/controle.xlsx
+++ b/controle/controle.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheli\Desktop\github\certificates\controle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720D6CB4-E927-49D3-AFDF-C74E2257BB1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B1AB6C-AC79-4AB9-AB21-AA34E68F8318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="218">
   <si>
     <t>Youtube parte 1: criação e otimização de um canal (de 03/02/2021 a 23/02/2021) 8hrs</t>
   </si>
@@ -685,10 +685,16 @@
     <t>Pós-Graduação em Engenharia de Dados</t>
   </si>
   <si>
-    <t xml:space="preserve"> https://mycourse.app/ZoePUK1spqgl4KoZE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DuckDB e Firecrawl Para Database e Web Scraping Analytics (Artificial Intelligence and AI Agents)</t>
+    <t>Administração de Sistema Operacional Linux com Docker e Kubernetes</t>
+  </si>
+  <si>
+    <t>https://mycourse.app/ZoePUK1spqgl4KoZE</t>
+  </si>
+  <si>
+    <t>https://mycourse.app/cqPIkj0YMELx0J7MD</t>
+  </si>
+  <si>
+    <t>DuckDB e Firecrawl Para Database e Web Scraping Analytics (Artificial Intelligence and AI Agents)</t>
   </si>
 </sst>
 </file>
@@ -1089,8 +1095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0F2FFB-C69B-48E5-8D17-73A3C2383ABD}">
   <dimension ref="A1:J98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3532,7 +3538,7 @@
         <v>65</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D95" s="2">
         <v>8</v>
@@ -3541,7 +3547,7 @@
         <v>45789</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>28</v>
@@ -3551,6 +3557,32 @@
       </c>
       <c r="I95" s="3">
         <v>45789</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B96" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D96" s="2">
+        <v>32</v>
+      </c>
+      <c r="E96" s="3">
+        <v>45846</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I96" s="3">
+        <v>45846</v>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.2">
@@ -3653,9 +3685,11 @@
     <hyperlink ref="F92" r:id="rId89" xr:uid="{E5E1F000-27DE-40E1-B6E7-91B4245B16B8}"/>
     <hyperlink ref="F93" r:id="rId90" xr:uid="{C0D6DFF0-7394-4496-B003-00459F2B26DA}"/>
     <hyperlink ref="F94" r:id="rId91" location="acc.qoPhQyrb" xr:uid="{C0AA55BB-BB9C-4067-81F7-112117003AFC}"/>
+    <hyperlink ref="F95" r:id="rId92" xr:uid="{27EE5898-894D-4987-A2C5-1690C49BDB65}"/>
+    <hyperlink ref="F96" r:id="rId93" xr:uid="{80A89DB6-BCAC-435B-9C81-EED713C56E41}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId92"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId94"/>
 </worksheet>
 </file>
 

--- a/controle/controle.xlsx
+++ b/controle/controle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheli\Desktop\github\certificates\controle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B1AB6C-AC79-4AB9-AB21-AA34E68F8318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BE8086-202C-4490-92AB-9E95A8CFB72E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Certificados, cursos, badges" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="220">
   <si>
     <t>Youtube parte 1: criação e otimização de um canal (de 03/02/2021 a 23/02/2021) 8hrs</t>
   </si>
@@ -695,6 +695,12 @@
   </si>
   <si>
     <t>DuckDB e Firecrawl Para Database e Web Scraping Analytics (Artificial Intelligence and AI Agents)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://mycourse.app/mxMUAQev361wYF7F0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IA Generativa e Agentes de IA Para Fluxos de Automação com Langflow e n8n</t>
   </si>
 </sst>
 </file>
@@ -1095,27 +1101,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0F2FFB-C69B-48E5-8D17-73A3C2383ABD}">
   <dimension ref="A1:J98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F96" sqref="F96"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C82" workbookViewId="0">
+      <selection activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="86.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="77.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="77.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="0.85546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1" hidden="1"/>
+    <col min="9" max="9" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="0.88671875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>26</v>
       </c>
@@ -1141,7 +1147,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>66</v>
       </c>
@@ -1167,7 +1173,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>65</v>
       </c>
@@ -1193,7 +1199,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>65</v>
       </c>
@@ -1219,7 +1225,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>66</v>
       </c>
@@ -1245,7 +1251,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1271,7 +1277,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
@@ -1297,7 +1303,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
@@ -1323,7 +1329,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
@@ -1349,7 +1355,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>66</v>
       </c>
@@ -1375,7 +1381,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
@@ -1401,7 +1407,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
@@ -1427,7 +1433,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
@@ -1453,7 +1459,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
@@ -1479,7 +1485,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
@@ -1505,7 +1511,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
@@ -1531,7 +1537,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
@@ -1557,7 +1563,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>27</v>
       </c>
@@ -1583,7 +1589,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>27</v>
       </c>
@@ -1609,7 +1615,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>27</v>
       </c>
@@ -1635,7 +1641,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>27</v>
       </c>
@@ -1661,7 +1667,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>27</v>
       </c>
@@ -1687,7 +1693,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>27</v>
       </c>
@@ -1713,7 +1719,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
@@ -1739,7 +1745,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>27</v>
       </c>
@@ -1765,7 +1771,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>27</v>
       </c>
@@ -1791,7 +1797,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>66</v>
       </c>
@@ -1817,7 +1823,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>27</v>
       </c>
@@ -1843,7 +1849,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>27</v>
       </c>
@@ -1869,7 +1875,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>27</v>
       </c>
@@ -1895,7 +1901,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>66</v>
       </c>
@@ -1921,7 +1927,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>66</v>
       </c>
@@ -1947,7 +1953,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>66</v>
       </c>
@@ -1973,7 +1979,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>27</v>
       </c>
@@ -1999,7 +2005,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>27</v>
       </c>
@@ -2025,7 +2031,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>27</v>
       </c>
@@ -2051,7 +2057,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>65</v>
       </c>
@@ -2077,7 +2083,7 @@
         <v>44744</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>65</v>
       </c>
@@ -2103,7 +2109,7 @@
         <v>44749</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>27</v>
       </c>
@@ -2129,7 +2135,7 @@
         <v>44753</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>27</v>
       </c>
@@ -2155,7 +2161,7 @@
         <v>44753</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>113</v>
       </c>
@@ -2181,7 +2187,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>113</v>
       </c>
@@ -2207,7 +2213,7 @@
         <v>45104</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>65</v>
       </c>
@@ -2233,7 +2239,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
         <v>27</v>
       </c>
@@ -2259,7 +2265,7 @@
         <v>45151</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
         <v>27</v>
       </c>
@@ -2285,7 +2291,7 @@
         <v>45154</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>96</v>
       </c>
@@ -2311,7 +2317,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
         <v>65</v>
       </c>
@@ -2337,7 +2343,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>102</v>
       </c>
@@ -2363,7 +2369,7 @@
         <v>45227</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>113</v>
       </c>
@@ -2389,7 +2395,7 @@
         <v>45322</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>113</v>
       </c>
@@ -2415,7 +2421,7 @@
         <v>45322</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>113</v>
       </c>
@@ -2441,7 +2447,7 @@
         <v>45322</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
         <v>27</v>
       </c>
@@ -2467,7 +2473,7 @@
         <v>45388</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>27</v>
       </c>
@@ -2493,7 +2499,7 @@
         <v>45388</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
         <v>66</v>
       </c>
@@ -2519,7 +2525,7 @@
         <v>45389</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
         <v>66</v>
       </c>
@@ -2545,7 +2551,7 @@
         <v>45395</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
         <v>27</v>
       </c>
@@ -2571,7 +2577,7 @@
         <v>45396</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
         <v>27</v>
       </c>
@@ -2597,7 +2603,7 @@
         <v>45396</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
         <v>27</v>
       </c>
@@ -2623,7 +2629,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
         <v>27</v>
       </c>
@@ -2649,7 +2655,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
         <v>27</v>
       </c>
@@ -2675,7 +2681,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
         <v>27</v>
       </c>
@@ -2701,7 +2707,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
         <v>27</v>
       </c>
@@ -2727,7 +2733,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
         <v>27</v>
       </c>
@@ -2753,7 +2759,7 @@
         <v>45403</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
         <v>27</v>
       </c>
@@ -2779,7 +2785,7 @@
         <v>45435</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
         <v>27</v>
       </c>
@@ -2805,7 +2811,7 @@
         <v>45440</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
         <v>27</v>
       </c>
@@ -2831,7 +2837,7 @@
         <v>45440</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="2" t="s">
         <v>144</v>
       </c>
@@ -2857,7 +2863,7 @@
         <v>45441</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
         <v>157</v>
       </c>
@@ -2883,7 +2889,7 @@
         <v>45469</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="2" t="s">
         <v>27</v>
       </c>
@@ -2909,7 +2915,7 @@
         <v>45479</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
         <v>27</v>
       </c>
@@ -2935,7 +2941,7 @@
         <v>45494</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
         <v>27</v>
       </c>
@@ -2961,7 +2967,7 @@
         <v>45517</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
         <v>65</v>
       </c>
@@ -2987,7 +2993,7 @@
         <v>45534</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
         <v>65</v>
       </c>
@@ -3013,7 +3019,7 @@
         <v>45536</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
         <v>65</v>
       </c>
@@ -3039,7 +3045,7 @@
         <v>45536</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
         <v>171</v>
       </c>
@@ -3065,7 +3071,7 @@
         <v>45577</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
         <v>172</v>
       </c>
@@ -3091,7 +3097,7 @@
         <v>45580</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="2" t="s">
         <v>172</v>
       </c>
@@ -3117,7 +3123,7 @@
         <v>45584</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="2" t="s">
         <v>172</v>
       </c>
@@ -3143,7 +3149,7 @@
         <v>45584</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="2" t="s">
         <v>181</v>
       </c>
@@ -3169,7 +3175,7 @@
         <v>45621</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="2" t="s">
         <v>27</v>
       </c>
@@ -3195,7 +3201,7 @@
         <v>45622</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
         <v>27</v>
       </c>
@@ -3221,7 +3227,7 @@
         <v>45626</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="2" t="s">
         <v>188</v>
       </c>
@@ -3247,7 +3253,7 @@
         <v>45645</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="2" t="s">
         <v>188</v>
       </c>
@@ -3273,7 +3279,7 @@
         <v>45645</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="2" t="s">
         <v>66</v>
       </c>
@@ -3299,7 +3305,7 @@
         <v>45298</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="2" t="s">
         <v>66</v>
       </c>
@@ -3325,7 +3331,7 @@
         <v>45690</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" s="2" t="s">
         <v>66</v>
       </c>
@@ -3351,7 +3357,7 @@
         <v>45690</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="2" t="s">
         <v>66</v>
       </c>
@@ -3377,7 +3383,7 @@
         <v>45690</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" s="2" t="s">
         <v>27</v>
       </c>
@@ -3403,7 +3409,7 @@
         <v>45692</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" s="2" t="s">
         <v>188</v>
       </c>
@@ -3429,7 +3435,7 @@
         <v>45692</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" s="2" t="s">
         <v>66</v>
       </c>
@@ -3455,7 +3461,7 @@
         <v>45711</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" s="2" t="s">
         <v>66</v>
       </c>
@@ -3481,7 +3487,7 @@
         <v>45711</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" s="2" t="s">
         <v>66</v>
       </c>
@@ -3507,7 +3513,7 @@
         <v>45711</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" s="2" t="s">
         <v>188</v>
       </c>
@@ -3533,7 +3539,7 @@
         <v>45766</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95" s="2" t="s">
         <v>65</v>
       </c>
@@ -3559,7 +3565,7 @@
         <v>45789</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B96" s="2" t="s">
         <v>65</v>
       </c>
@@ -3585,7 +3591,33 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B97" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D97" s="2">
+        <v>8</v>
+      </c>
+      <c r="E97" s="3">
+        <v>45848</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I97" s="3">
+        <v>45848</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C98" s="5"/>
     </row>
   </sheetData>
@@ -3701,23 +3733,23 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="86.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="77.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="77.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="0.85546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1" hidden="1"/>
+    <col min="9" max="9" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="0.88671875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>154</v>
       </c>
@@ -3743,7 +3775,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>150</v>
       </c>
@@ -3769,7 +3801,7 @@
         <v>45467</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>152</v>
       </c>
@@ -3795,7 +3827,7 @@
         <v>45467</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>151</v>
       </c>
@@ -3821,7 +3853,7 @@
         <v>45467</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>65</v>
       </c>

--- a/controle/controle.xlsx
+++ b/controle/controle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheli\Desktop\github\certificates\controle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BE8086-202C-4490-92AB-9E95A8CFB72E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B50CDAC-3845-4344-8F7B-FACC9756B811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Certificados, cursos, badges" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="221">
   <si>
     <t>Youtube parte 1: criação e otimização de um canal (de 03/02/2021 a 23/02/2021) 8hrs</t>
   </si>
@@ -697,10 +697,13 @@
     <t>DuckDB e Firecrawl Para Database e Web Scraping Analytics (Artificial Intelligence and AI Agents)</t>
   </si>
   <si>
-    <t xml:space="preserve"> https://mycourse.app/mxMUAQev361wYF7F0</t>
-  </si>
-  <si>
     <t xml:space="preserve"> IA Generativa e Agentes de IA Para Fluxos de Automação com Langflow e n8n</t>
+  </si>
+  <si>
+    <t>https://mycourse.app/VDzetUOyz0DjHrSCP</t>
+  </si>
+  <si>
+    <t>https://mycourse.app/mxMUAQev361wYF7F0</t>
   </si>
 </sst>
 </file>
@@ -775,15 +778,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1101,27 +1101,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0F2FFB-C69B-48E5-8D17-73A3C2383ABD}">
   <dimension ref="A1:J98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C82" workbookViewId="0">
-      <selection activeCell="F97" sqref="F97"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="86.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="77.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="77.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="0.88671875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1" hidden="1"/>
+    <col min="9" max="9" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="0.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>26</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>66</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>65</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>65</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>66</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>66</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>27</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>27</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>27</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>27</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>27</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>27</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>27</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>27</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>66</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>27</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>27</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>27</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>66</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>66</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>66</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
         <v>27</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
         <v>27</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>27</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>65</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>44744</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
         <v>65</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>44749</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
         <v>27</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>44753</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
         <v>27</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>44753</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
         <v>113</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
         <v>113</v>
       </c>
@@ -2213,7 +2213,7 @@
         <v>45104</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
         <v>65</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
         <v>27</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>45151</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
         <v>27</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>45154</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B47" s="2" t="s">
         <v>96</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
         <v>65</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
         <v>102</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>45227</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
         <v>113</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>45322</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
         <v>113</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>45322</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
         <v>113</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>45322</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
         <v>27</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>45388</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
         <v>27</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>45388</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
         <v>66</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>45389</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
         <v>66</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>45395</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
         <v>27</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>45396</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
         <v>27</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>45396</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
         <v>27</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
         <v>27</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
         <v>27</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
         <v>27</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
         <v>27</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
         <v>27</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>45403</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B65" s="2" t="s">
         <v>27</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>45435</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B66" s="2" t="s">
         <v>27</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>45440</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B67" s="2" t="s">
         <v>27</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>45440</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
         <v>144</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>45441</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
         <v>157</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>45469</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B70" s="2" t="s">
         <v>27</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>45479</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B71" s="2" t="s">
         <v>27</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>45494</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B72" s="2" t="s">
         <v>27</v>
       </c>
@@ -2967,7 +2967,7 @@
         <v>45517</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B73" s="2" t="s">
         <v>65</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>45534</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B74" s="2" t="s">
         <v>65</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>45536</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B75" s="2" t="s">
         <v>65</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>45536</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B76" s="2" t="s">
         <v>171</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>45577</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B77" s="2" t="s">
         <v>172</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>45580</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B78" s="2" t="s">
         <v>172</v>
       </c>
@@ -3123,7 +3123,7 @@
         <v>45584</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B79" s="2" t="s">
         <v>172</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>45584</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B80" s="2" t="s">
         <v>181</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>45621</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B81" s="2" t="s">
         <v>27</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>45622</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B82" s="2" t="s">
         <v>27</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>45626</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B83" s="2" t="s">
         <v>188</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>45645</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B84" s="2" t="s">
         <v>188</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>45645</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B85" s="2" t="s">
         <v>66</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>45298</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B86" s="2" t="s">
         <v>66</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>45690</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B87" s="2" t="s">
         <v>66</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>45690</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B88" s="2" t="s">
         <v>66</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>45690</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B89" s="2" t="s">
         <v>27</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>45692</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B90" s="2" t="s">
         <v>188</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>45692</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B91" s="2" t="s">
         <v>66</v>
       </c>
@@ -3461,7 +3461,7 @@
         <v>45711</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B92" s="2" t="s">
         <v>66</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>45711</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B93" s="2" t="s">
         <v>66</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>45711</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B94" s="2" t="s">
         <v>188</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>45766</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B95" s="2" t="s">
         <v>65</v>
       </c>
@@ -3565,7 +3565,7 @@
         <v>45789</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B96" s="2" t="s">
         <v>65</v>
       </c>
@@ -3591,12 +3591,12 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B97" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D97" s="2">
         <v>8</v>
@@ -3605,7 +3605,7 @@
         <v>45848</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>28</v>
@@ -3617,8 +3617,31 @@
         <v>45848</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C98" s="5"/>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B98" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D98" s="2">
+        <v>8</v>
+      </c>
+      <c r="E98" s="3">
+        <v>45849</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I98" s="3">
+        <v>45849</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="B2:I68" xr:uid="{7D0F2FFB-C69B-48E5-8D17-73A3C2383ABD}"/>
@@ -3719,9 +3742,11 @@
     <hyperlink ref="F94" r:id="rId91" location="acc.qoPhQyrb" xr:uid="{C0AA55BB-BB9C-4067-81F7-112117003AFC}"/>
     <hyperlink ref="F95" r:id="rId92" xr:uid="{27EE5898-894D-4987-A2C5-1690C49BDB65}"/>
     <hyperlink ref="F96" r:id="rId93" xr:uid="{80A89DB6-BCAC-435B-9C81-EED713C56E41}"/>
+    <hyperlink ref="F98" r:id="rId94" xr:uid="{4CD41B68-522B-420B-80E8-260CEDC1D5D1}"/>
+    <hyperlink ref="F97" r:id="rId95" xr:uid="{9AEA2F87-2CC5-480F-BCE7-F9B2A16EA451}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId94"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId96"/>
 </worksheet>
 </file>
 
@@ -3733,23 +3758,23 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="86.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="77.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="77.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="0.88671875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1" hidden="1"/>
+    <col min="9" max="9" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="0.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>154</v>
       </c>
@@ -3775,7 +3800,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>150</v>
       </c>
@@ -3801,7 +3826,7 @@
         <v>45467</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>152</v>
       </c>
@@ -3827,7 +3852,7 @@
         <v>45467</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>151</v>
       </c>
@@ -3853,7 +3878,7 @@
         <v>45467</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>65</v>
       </c>

--- a/controle/controle.xlsx
+++ b/controle/controle.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheli\Desktop\github\certificates\controle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B50CDAC-3845-4344-8F7B-FACC9756B811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A64ACD2-CD4C-4FD1-9874-D3C20D091564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="223">
   <si>
     <t>Youtube parte 1: criação e otimização de um canal (de 03/02/2021 a 23/02/2021) 8hrs</t>
   </si>
@@ -704,6 +704,12 @@
   </si>
   <si>
     <t>https://mycourse.app/mxMUAQev361wYF7F0</t>
+  </si>
+  <si>
+    <t>Certificação Microsoft - AZ-900 Azure Fundamentals</t>
+  </si>
+  <si>
+    <t>https://ude.my/UC-3fe7c102-7144-4f7d-8b4b-8db9e3407556</t>
   </si>
 </sst>
 </file>
@@ -778,12 +784,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1099,10 +1106,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0F2FFB-C69B-48E5-8D17-73A3C2383ABD}">
-  <dimension ref="A1:J98"/>
+  <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B67" workbookViewId="0">
+      <selection activeCell="F106" sqref="F106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3641,6 +3648,32 @@
       </c>
       <c r="I98" s="3">
         <v>45849</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B99" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D99" s="2">
+        <v>5</v>
+      </c>
+      <c r="E99" s="3">
+        <v>45883</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I99" s="3">
+        <v>45883</v>
       </c>
     </row>
   </sheetData>
@@ -3744,9 +3777,10 @@
     <hyperlink ref="F96" r:id="rId93" xr:uid="{80A89DB6-BCAC-435B-9C81-EED713C56E41}"/>
     <hyperlink ref="F98" r:id="rId94" xr:uid="{4CD41B68-522B-420B-80E8-260CEDC1D5D1}"/>
     <hyperlink ref="F97" r:id="rId95" xr:uid="{9AEA2F87-2CC5-480F-BCE7-F9B2A16EA451}"/>
+    <hyperlink ref="F99" r:id="rId96" xr:uid="{BF7FE888-6AC5-4CF1-A7D7-6C88F5288AF2}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId96"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId97"/>
 </worksheet>
 </file>
 

--- a/controle/controle.xlsx
+++ b/controle/controle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheli\Desktop\github\certificates\controle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A64ACD2-CD4C-4FD1-9874-D3C20D091564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235569CA-3EF5-44C9-922B-B34A44D3711B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="226">
   <si>
     <t>Youtube parte 1: criação e otimização de um canal (de 03/02/2021 a 23/02/2021) 8hrs</t>
   </si>
@@ -710,13 +710,22 @@
   </si>
   <si>
     <t>https://ude.my/UC-3fe7c102-7144-4f7d-8b4b-8db9e3407556</t>
+  </si>
+  <si>
+    <t>https://learn.microsoft.com/api/credentials/share/pt-br/PhelipeSempreboni-3357/929BE7AE09C2BBAF?sharingId=3E1FB82E24C4C34E</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>AZ-900 - Microsoft Certified: Conceitos básicos do Azure</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -743,6 +752,14 @@
       <u/>
       <sz val="9"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -790,7 +807,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1106,10 +1123,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0F2FFB-C69B-48E5-8D17-73A3C2383ABD}">
-  <dimension ref="A1:J99"/>
+  <dimension ref="A1:J109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B67" workbookViewId="0">
-      <selection activeCell="F106" sqref="F106"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E109" sqref="E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3650,7 +3667,7 @@
         <v>45849</v>
       </c>
     </row>
-    <row r="99" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B99" s="2" t="s">
         <v>66</v>
       </c>
@@ -3663,7 +3680,7 @@
       <c r="E99" s="3">
         <v>45883</v>
       </c>
-      <c r="F99" s="5" t="s">
+      <c r="F99" s="4" t="s">
         <v>222</v>
       </c>
       <c r="G99" s="2" t="s">
@@ -3675,6 +3692,44 @@
       <c r="I99" s="3">
         <v>45883</v>
       </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B100" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D100" s="2">
+        <v>1</v>
+      </c>
+      <c r="E100" s="3">
+        <v>45891</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I100" s="3">
+        <v>45891</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B101" s="5"/>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B102" s="5"/>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C106" s="5"/>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E109" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:I68" xr:uid="{7D0F2FFB-C69B-48E5-8D17-73A3C2383ABD}"/>
@@ -3778,9 +3833,10 @@
     <hyperlink ref="F98" r:id="rId94" xr:uid="{4CD41B68-522B-420B-80E8-260CEDC1D5D1}"/>
     <hyperlink ref="F97" r:id="rId95" xr:uid="{9AEA2F87-2CC5-480F-BCE7-F9B2A16EA451}"/>
     <hyperlink ref="F99" r:id="rId96" xr:uid="{BF7FE888-6AC5-4CF1-A7D7-6C88F5288AF2}"/>
+    <hyperlink ref="F100" r:id="rId97" xr:uid="{556F71FB-389E-4625-B8BB-9572ED4ACE68}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId97"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId98"/>
 </worksheet>
 </file>
 

--- a/controle/controle.xlsx
+++ b/controle/controle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheli\Desktop\github\certificates\controle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235569CA-3EF5-44C9-922B-B34A44D3711B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EE9E86-672B-4DB8-B2BF-69F8A16BF353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="228">
   <si>
     <t>Youtube parte 1: criação e otimização de um canal (de 03/02/2021 a 23/02/2021) 8hrs</t>
   </si>
@@ -719,6 +719,12 @@
   </si>
   <si>
     <t>AZ-900 - Microsoft Certified: Conceitos básicos do Azure</t>
+  </si>
+  <si>
+    <t>DP-900 Azure Data Fundamentals Exam - Prep In One Day</t>
+  </si>
+  <si>
+    <t>ude.my/UC-4d2736be-92da-425f-a676-546cd07aaf8a</t>
   </si>
 </sst>
 </file>
@@ -1126,7 +1132,7 @@
   <dimension ref="A1:J109"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E109" sqref="E109"/>
+      <selection activeCell="F101" sqref="F101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3720,7 +3726,30 @@
       </c>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B101" s="5"/>
+      <c r="B101" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D101" s="2">
+        <v>5</v>
+      </c>
+      <c r="E101" s="3">
+        <v>45902</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I101" s="3">
+        <v>45902</v>
+      </c>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B102" s="5"/>

--- a/controle/controle.xlsx
+++ b/controle/controle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheli\Desktop\github\certificates\controle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EE9E86-672B-4DB8-B2BF-69F8A16BF353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C9C18D-8D79-4CAE-824F-1010C27A8433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Certificados, cursos, badges" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="228">
   <si>
     <t>Youtube parte 1: criação e otimização de um canal (de 03/02/2021 a 23/02/2021) 8hrs</t>
   </si>
@@ -1131,27 +1131,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0F2FFB-C69B-48E5-8D17-73A3C2383ABD}">
   <dimension ref="A1:J109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="F101" sqref="F101"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="86.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="77.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="77.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="0.85546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1" hidden="1"/>
+    <col min="9" max="9" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="0.88671875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>26</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>66</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>65</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>65</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>66</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>66</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>27</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>27</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>27</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>27</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>27</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>27</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>27</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>27</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>66</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>27</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>27</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>27</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>66</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>66</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>66</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>27</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>27</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>27</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>65</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>44744</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>65</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>44749</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>27</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>44753</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>27</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>44753</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>113</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>113</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>45104</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>65</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
         <v>27</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>45151</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
         <v>27</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>45154</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>96</v>
       </c>
@@ -2347,7 +2347,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
         <v>65</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>102</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>45227</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>113</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>45322</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>113</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>45322</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>113</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>45322</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
         <v>27</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>45388</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>27</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>45388</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
         <v>66</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>45389</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
         <v>66</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>45395</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
         <v>27</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>45396</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
         <v>27</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>45396</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
         <v>27</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
         <v>27</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
         <v>27</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
         <v>27</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
         <v>27</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
         <v>27</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>45403</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
         <v>27</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>45435</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
         <v>27</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>45440</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
         <v>27</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>45440</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="2" t="s">
         <v>144</v>
       </c>
@@ -2893,7 +2893,7 @@
         <v>45441</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
         <v>157</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>45469</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="2" t="s">
         <v>27</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>45479</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
         <v>27</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>45494</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
         <v>27</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>45517</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
         <v>65</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>45534</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
         <v>65</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>45536</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
         <v>65</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>45536</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
         <v>171</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>45577</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
         <v>172</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>45580</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="2" t="s">
         <v>172</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>45584</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="2" t="s">
         <v>172</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>45584</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="2" t="s">
         <v>181</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>45621</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="2" t="s">
         <v>27</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>45622</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
         <v>27</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>45626</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="2" t="s">
         <v>188</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>45645</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="2" t="s">
         <v>188</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>45645</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="2" t="s">
         <v>66</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>45298</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="2" t="s">
         <v>66</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>45690</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" s="2" t="s">
         <v>66</v>
       </c>
@@ -3387,7 +3387,7 @@
         <v>45690</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="2" t="s">
         <v>66</v>
       </c>
@@ -3413,7 +3413,7 @@
         <v>45690</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" s="2" t="s">
         <v>27</v>
       </c>
@@ -3439,7 +3439,7 @@
         <v>45692</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" s="2" t="s">
         <v>188</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>45692</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" s="2" t="s">
         <v>66</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>45711</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" s="2" t="s">
         <v>66</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>45711</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" s="2" t="s">
         <v>66</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>45711</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" s="2" t="s">
         <v>188</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>45766</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95" s="2" t="s">
         <v>65</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>45789</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B96" s="2" t="s">
         <v>65</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" s="2" t="s">
         <v>65</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>45848</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" s="2" t="s">
         <v>65</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>45849</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99" s="2" t="s">
         <v>66</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>45883</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" s="2" t="s">
         <v>224</v>
       </c>
@@ -3725,7 +3725,7 @@
         <v>45891</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101" s="2" t="s">
         <v>66</v>
       </c>
@@ -3751,13 +3751,32 @@
         <v>45902</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B102" s="5"/>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B102" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2">
+        <v>1</v>
+      </c>
+      <c r="E102" s="3">
+        <v>45904</v>
+      </c>
+      <c r="F102" s="4"/>
+      <c r="G102" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I102" s="3">
+        <v>45904</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C106" s="5"/>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E109" s="5"/>
     </row>
   </sheetData>
@@ -3877,23 +3896,23 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="86.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="77.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="77.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="0.85546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1" hidden="1"/>
+    <col min="9" max="9" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="0.88671875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>154</v>
       </c>
@@ -3919,7 +3938,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>150</v>
       </c>
@@ -3945,7 +3964,7 @@
         <v>45467</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>152</v>
       </c>
@@ -3971,7 +3990,7 @@
         <v>45467</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>151</v>
       </c>
@@ -3997,7 +4016,7 @@
         <v>45467</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>65</v>
       </c>

--- a/controle/controle.xlsx
+++ b/controle/controle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheli\Desktop\github\certificates\controle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C9C18D-8D79-4CAE-824F-1010C27A8433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2AF5D4-BB0A-4F0E-B0C7-D98852032F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="234">
   <si>
     <t>Youtube parte 1: criação e otimização de um canal (de 03/02/2021 a 23/02/2021) 8hrs</t>
   </si>
@@ -725,6 +725,24 @@
   </si>
   <si>
     <t>ude.my/UC-4d2736be-92da-425f-a676-546cd07aaf8a</t>
+  </si>
+  <si>
+    <t>AI-900 - Fundamentos de Inteligência Artificial no Azure</t>
+  </si>
+  <si>
+    <t>DP-900 - Microsoft Certified: Conceitos básicos de dados do Azure</t>
+  </si>
+  <si>
+    <t>https://learn.microsoft.com/api/credentials/share/pt-br/PhelipeSempreboni-3357/1F4AC07C50A3675F?sharingId=3E1FB82E24C4C34E</t>
+  </si>
+  <si>
+    <t>ude.my/UC-c4ce78c3-25fa-45cb-a391-6cf6a45c528f</t>
+  </si>
+  <si>
+    <t>AI-900 - Microsoft Certified: Conceitos básicos da IA do Azure</t>
+  </si>
+  <si>
+    <t>https://learn.microsoft.com/api/credentials/share/pt-br/PhelipeSempreboni-3357/864D84B98AEDA7?sharingId=3E1FB82E24C4C34E</t>
   </si>
 </sst>
 </file>
@@ -1129,10 +1147,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0F2FFB-C69B-48E5-8D17-73A3C2383ABD}">
-  <dimension ref="A1:J109"/>
+  <dimension ref="A1:J108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -3755,14 +3773,18 @@
       <c r="B102" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C102" s="2"/>
+      <c r="C102" s="2" t="s">
+        <v>229</v>
+      </c>
       <c r="D102" s="2">
         <v>1</v>
       </c>
       <c r="E102" s="3">
         <v>45904</v>
       </c>
-      <c r="F102" s="4"/>
+      <c r="F102" s="4" t="s">
+        <v>230</v>
+      </c>
       <c r="G102" s="2" t="s">
         <v>28</v>
       </c>
@@ -3773,11 +3795,63 @@
         <v>45904</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C106" s="5"/>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E109" s="5"/>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B103" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D103" s="2">
+        <v>5</v>
+      </c>
+      <c r="E103" s="3">
+        <v>45910</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I103" s="3">
+        <v>45910</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B104" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D104" s="2">
+        <v>1</v>
+      </c>
+      <c r="E104" s="3">
+        <v>45913</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I104" s="3">
+        <v>45913</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C105" s="5"/>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E108" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:I68" xr:uid="{7D0F2FFB-C69B-48E5-8D17-73A3C2383ABD}"/>
@@ -3882,9 +3956,11 @@
     <hyperlink ref="F97" r:id="rId95" xr:uid="{9AEA2F87-2CC5-480F-BCE7-F9B2A16EA451}"/>
     <hyperlink ref="F99" r:id="rId96" xr:uid="{BF7FE888-6AC5-4CF1-A7D7-6C88F5288AF2}"/>
     <hyperlink ref="F100" r:id="rId97" xr:uid="{556F71FB-389E-4625-B8BB-9572ED4ACE68}"/>
+    <hyperlink ref="F102" r:id="rId98" xr:uid="{A9EE681D-BE1A-46F3-B7BC-5256C693BD36}"/>
+    <hyperlink ref="F104" r:id="rId99" xr:uid="{A789769D-D4A0-46B1-B8B4-0D0D32CFD938}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId98"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId100"/>
 </worksheet>
 </file>
 

--- a/controle/controle.xlsx
+++ b/controle/controle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheli\Desktop\github\certificates\controle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2AF5D4-BB0A-4F0E-B0C7-D98852032F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DBC37E-23ED-4B90-BB06-65FD957F443A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="238">
   <si>
     <t>Youtube parte 1: criação e otimização de um canal (de 03/02/2021 a 23/02/2021) 8hrs</t>
   </si>
@@ -724,9 +724,6 @@
     <t>DP-900 Azure Data Fundamentals Exam - Prep In One Day</t>
   </si>
   <si>
-    <t>ude.my/UC-4d2736be-92da-425f-a676-546cd07aaf8a</t>
-  </si>
-  <si>
     <t>AI-900 - Fundamentos de Inteligência Artificial no Azure</t>
   </si>
   <si>
@@ -736,13 +733,28 @@
     <t>https://learn.microsoft.com/api/credentials/share/pt-br/PhelipeSempreboni-3357/1F4AC07C50A3675F?sharingId=3E1FB82E24C4C34E</t>
   </si>
   <si>
-    <t>ude.my/UC-c4ce78c3-25fa-45cb-a391-6cf6a45c528f</t>
-  </si>
-  <si>
     <t>AI-900 - Microsoft Certified: Conceitos básicos da IA do Azure</t>
   </si>
   <si>
     <t>https://learn.microsoft.com/api/credentials/share/pt-br/PhelipeSempreboni-3357/864D84B98AEDA7?sharingId=3E1FB82E24C4C34E</t>
+  </si>
+  <si>
+    <t>https://ude.my/UC-4d2736be-92da-425f-a676-546cd07aaf8a</t>
+  </si>
+  <si>
+    <t>https://ude.my/UC-c4ce78c3-25fa-45cb-a391-6cf6a45c528f</t>
+  </si>
+  <si>
+    <t>https://ude.my/UC-Oe063be6-71b8-4e86-9404-784a22b621f5</t>
+  </si>
+  <si>
+    <t>SC-900 - Microsoft Security Fundamentals Exam Prep</t>
+  </si>
+  <si>
+    <t>SC-900 - Microsoft Certified: Conceitos básicos de segurança, conformidade e identidade</t>
+  </si>
+  <si>
+    <t>https://learn.microsoft.com/api/credentials/share/pt-br/PhelipeSempreboni-3357/43BDA76272624D89?sharingId=3E1FB82E24C4C34E</t>
   </si>
 </sst>
 </file>
@@ -1149,8 +1161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0F2FFB-C69B-48E5-8D17-73A3C2383ABD}">
   <dimension ref="A1:J108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="B107" sqref="B107"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -3757,7 +3769,7 @@
         <v>45902</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>28</v>
@@ -3774,7 +3786,7 @@
         <v>224</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D102" s="2">
         <v>1</v>
@@ -3783,7 +3795,7 @@
         <v>45904</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>28</v>
@@ -3800,7 +3812,7 @@
         <v>66</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D103" s="2">
         <v>5</v>
@@ -3809,7 +3821,7 @@
         <v>45910</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>28</v>
@@ -3826,7 +3838,7 @@
         <v>224</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D104" s="2">
         <v>1</v>
@@ -3835,7 +3847,7 @@
         <v>45913</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>28</v>
@@ -3848,7 +3860,56 @@
       </c>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C105" s="5"/>
+      <c r="B105" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D105" s="2">
+        <v>6</v>
+      </c>
+      <c r="E105" s="3">
+        <v>45920</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I105" s="3">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B106" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D106" s="2">
+        <v>1</v>
+      </c>
+      <c r="E106" s="3">
+        <v>45920</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I106" s="3">
+        <v>45920</v>
+      </c>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E108" s="5"/>
@@ -3958,9 +4019,13 @@
     <hyperlink ref="F100" r:id="rId97" xr:uid="{556F71FB-389E-4625-B8BB-9572ED4ACE68}"/>
     <hyperlink ref="F102" r:id="rId98" xr:uid="{A9EE681D-BE1A-46F3-B7BC-5256C693BD36}"/>
     <hyperlink ref="F104" r:id="rId99" xr:uid="{A789769D-D4A0-46B1-B8B4-0D0D32CFD938}"/>
+    <hyperlink ref="F101" r:id="rId100" xr:uid="{08021363-9CFE-4A4C-9920-0699CA57C681}"/>
+    <hyperlink ref="F103" r:id="rId101" xr:uid="{655FAACC-8865-4C1B-ADB8-BA67512534BE}"/>
+    <hyperlink ref="F105" r:id="rId102" xr:uid="{12854424-2019-4D6F-A569-CA2396ABC504}"/>
+    <hyperlink ref="F106" r:id="rId103" xr:uid="{7153E643-69D6-4852-B1B6-CD70D9B646FC}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId100"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId104"/>
 </worksheet>
 </file>
 

--- a/controle/controle.xlsx
+++ b/controle/controle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheli\Desktop\github\certificates\controle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DBC37E-23ED-4B90-BB06-65FD957F443A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1FF84F-6D23-4A20-B19B-3A9A99BB3523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Certificados, cursos, badges" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="251">
   <si>
     <t>Youtube parte 1: criação e otimização de um canal (de 03/02/2021 a 23/02/2021) 8hrs</t>
   </si>
@@ -755,13 +755,52 @@
   </si>
   <si>
     <t>https://learn.microsoft.com/api/credentials/share/pt-br/PhelipeSempreboni-3357/43BDA76272624D89?sharingId=3E1FB82E24C4C34E</t>
+  </si>
+  <si>
+    <t>Fundamentos de Data Science e Inteligência Artificial</t>
+  </si>
+  <si>
+    <t>Infraestrutura Como Código com Terraform, AWS, Azure e Databricks</t>
+  </si>
+  <si>
+    <t>https://mycourse.app/aDFTOCVx0umIlXIBD</t>
+  </si>
+  <si>
+    <t>Modelagem, Implementação e Governança de Data Warehouses</t>
+  </si>
+  <si>
+    <t>https://mycourse.app/CKGvcqddLxpzYj3xu</t>
+  </si>
+  <si>
+    <t>Engenharia de Dados com Airbyte, DBT e SQL</t>
+  </si>
+  <si>
+    <t>https://mycourse.app/QcLW9VlJeqZOLIDwR</t>
+  </si>
+  <si>
+    <t>Armazenamento e Gestão de Dados com Data Lake e Data Lakehouse</t>
+  </si>
+  <si>
+    <t>https://mycourse.app/8UUNg7ybMiQAUYth9</t>
+  </si>
+  <si>
+    <t>PySpark e Apache Kafka Para Processamento de Dados em Batch e Streaming</t>
+  </si>
+  <si>
+    <t>https://mycourse.app/vBkiiFASctndVQgFb</t>
+  </si>
+  <si>
+    <t>Módulo de Pós-Graduação em Engenharia de Dados</t>
+  </si>
+  <si>
+    <t>https://mycourse.app/gCfeuGwmcJoClDGJA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -788,14 +827,6 @@
       <u/>
       <sz val="9"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="9"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -837,13 +868,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1159,29 +1189,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0F2FFB-C69B-48E5-8D17-73A3C2383ABD}">
-  <dimension ref="A1:J108"/>
+  <dimension ref="A1:J113"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="C118" sqref="C118"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="86.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="77.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="77.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="0.88671875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1" hidden="1"/>
+    <col min="9" max="9" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="0.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>26</v>
       </c>
@@ -1207,7 +1237,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>66</v>
       </c>
@@ -1233,7 +1263,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>65</v>
       </c>
@@ -1259,7 +1289,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>65</v>
       </c>
@@ -1285,7 +1315,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>66</v>
       </c>
@@ -1311,7 +1341,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1337,7 +1367,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
@@ -1363,7 +1393,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
@@ -1389,7 +1419,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
@@ -1415,7 +1445,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>66</v>
       </c>
@@ -1441,7 +1471,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
@@ -1467,7 +1497,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
@@ -1493,7 +1523,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
@@ -1519,7 +1549,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
@@ -1545,7 +1575,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
@@ -1571,7 +1601,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
@@ -1597,7 +1627,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
@@ -1623,7 +1653,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>27</v>
       </c>
@@ -1649,7 +1679,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>27</v>
       </c>
@@ -1675,7 +1705,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>27</v>
       </c>
@@ -1701,7 +1731,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>27</v>
       </c>
@@ -1727,7 +1757,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>27</v>
       </c>
@@ -1753,7 +1783,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>27</v>
       </c>
@@ -1779,7 +1809,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
@@ -1805,7 +1835,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>27</v>
       </c>
@@ -1831,7 +1861,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>27</v>
       </c>
@@ -1857,7 +1887,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>66</v>
       </c>
@@ -1883,7 +1913,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>27</v>
       </c>
@@ -1909,7 +1939,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>27</v>
       </c>
@@ -1935,7 +1965,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>27</v>
       </c>
@@ -1961,7 +1991,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>66</v>
       </c>
@@ -1987,7 +2017,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>66</v>
       </c>
@@ -2013,7 +2043,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>66</v>
       </c>
@@ -2039,7 +2069,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
         <v>27</v>
       </c>
@@ -2065,7 +2095,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
         <v>27</v>
       </c>
@@ -2091,7 +2121,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>27</v>
       </c>
@@ -2117,7 +2147,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>65</v>
       </c>
@@ -2143,7 +2173,7 @@
         <v>44744</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
         <v>65</v>
       </c>
@@ -2169,7 +2199,7 @@
         <v>44749</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
         <v>27</v>
       </c>
@@ -2195,7 +2225,7 @@
         <v>44753</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
         <v>27</v>
       </c>
@@ -2221,7 +2251,7 @@
         <v>44753</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
         <v>113</v>
       </c>
@@ -2247,7 +2277,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
         <v>113</v>
       </c>
@@ -2273,7 +2303,7 @@
         <v>45104</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
         <v>65</v>
       </c>
@@ -2299,7 +2329,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
         <v>27</v>
       </c>
@@ -2325,7 +2355,7 @@
         <v>45151</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
         <v>27</v>
       </c>
@@ -2351,7 +2381,7 @@
         <v>45154</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B47" s="2" t="s">
         <v>96</v>
       </c>
@@ -2377,7 +2407,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
         <v>65</v>
       </c>
@@ -2403,7 +2433,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
         <v>102</v>
       </c>
@@ -2429,7 +2459,7 @@
         <v>45227</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
         <v>113</v>
       </c>
@@ -2455,7 +2485,7 @@
         <v>45322</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
         <v>113</v>
       </c>
@@ -2481,7 +2511,7 @@
         <v>45322</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
         <v>113</v>
       </c>
@@ -2507,7 +2537,7 @@
         <v>45322</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
         <v>27</v>
       </c>
@@ -2533,7 +2563,7 @@
         <v>45388</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
         <v>27</v>
       </c>
@@ -2559,7 +2589,7 @@
         <v>45388</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
         <v>66</v>
       </c>
@@ -2585,7 +2615,7 @@
         <v>45389</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
         <v>66</v>
       </c>
@@ -2611,7 +2641,7 @@
         <v>45395</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
         <v>27</v>
       </c>
@@ -2637,7 +2667,7 @@
         <v>45396</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
         <v>27</v>
       </c>
@@ -2663,7 +2693,7 @@
         <v>45396</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
         <v>27</v>
       </c>
@@ -2689,7 +2719,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
         <v>27</v>
       </c>
@@ -2715,7 +2745,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
         <v>27</v>
       </c>
@@ -2741,7 +2771,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
         <v>27</v>
       </c>
@@ -2767,7 +2797,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
         <v>27</v>
       </c>
@@ -2793,7 +2823,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
         <v>27</v>
       </c>
@@ -2819,7 +2849,7 @@
         <v>45403</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B65" s="2" t="s">
         <v>27</v>
       </c>
@@ -2845,7 +2875,7 @@
         <v>45435</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B66" s="2" t="s">
         <v>27</v>
       </c>
@@ -2871,7 +2901,7 @@
         <v>45440</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B67" s="2" t="s">
         <v>27</v>
       </c>
@@ -2897,7 +2927,7 @@
         <v>45440</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
         <v>144</v>
       </c>
@@ -2923,7 +2953,7 @@
         <v>45441</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
         <v>157</v>
       </c>
@@ -2949,7 +2979,7 @@
         <v>45469</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B70" s="2" t="s">
         <v>27</v>
       </c>
@@ -2975,7 +3005,7 @@
         <v>45479</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B71" s="2" t="s">
         <v>27</v>
       </c>
@@ -3001,7 +3031,7 @@
         <v>45494</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B72" s="2" t="s">
         <v>27</v>
       </c>
@@ -3027,7 +3057,7 @@
         <v>45517</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B73" s="2" t="s">
         <v>65</v>
       </c>
@@ -3053,7 +3083,7 @@
         <v>45534</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B74" s="2" t="s">
         <v>65</v>
       </c>
@@ -3079,7 +3109,7 @@
         <v>45536</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B75" s="2" t="s">
         <v>65</v>
       </c>
@@ -3105,7 +3135,7 @@
         <v>45536</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B76" s="2" t="s">
         <v>171</v>
       </c>
@@ -3131,7 +3161,7 @@
         <v>45577</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B77" s="2" t="s">
         <v>172</v>
       </c>
@@ -3157,7 +3187,7 @@
         <v>45580</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B78" s="2" t="s">
         <v>172</v>
       </c>
@@ -3183,7 +3213,7 @@
         <v>45584</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B79" s="2" t="s">
         <v>172</v>
       </c>
@@ -3209,7 +3239,7 @@
         <v>45584</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B80" s="2" t="s">
         <v>181</v>
       </c>
@@ -3235,7 +3265,7 @@
         <v>45621</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B81" s="2" t="s">
         <v>27</v>
       </c>
@@ -3261,7 +3291,7 @@
         <v>45622</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B82" s="2" t="s">
         <v>27</v>
       </c>
@@ -3287,7 +3317,7 @@
         <v>45626</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B83" s="2" t="s">
         <v>188</v>
       </c>
@@ -3313,7 +3343,7 @@
         <v>45645</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B84" s="2" t="s">
         <v>188</v>
       </c>
@@ -3339,7 +3369,7 @@
         <v>45645</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B85" s="2" t="s">
         <v>66</v>
       </c>
@@ -3365,7 +3395,7 @@
         <v>45298</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B86" s="2" t="s">
         <v>66</v>
       </c>
@@ -3391,7 +3421,7 @@
         <v>45690</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B87" s="2" t="s">
         <v>66</v>
       </c>
@@ -3417,7 +3447,7 @@
         <v>45690</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B88" s="2" t="s">
         <v>66</v>
       </c>
@@ -3443,7 +3473,7 @@
         <v>45690</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B89" s="2" t="s">
         <v>27</v>
       </c>
@@ -3469,7 +3499,7 @@
         <v>45692</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B90" s="2" t="s">
         <v>188</v>
       </c>
@@ -3495,7 +3525,7 @@
         <v>45692</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B91" s="2" t="s">
         <v>66</v>
       </c>
@@ -3521,7 +3551,7 @@
         <v>45711</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B92" s="2" t="s">
         <v>66</v>
       </c>
@@ -3547,7 +3577,7 @@
         <v>45711</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B93" s="2" t="s">
         <v>66</v>
       </c>
@@ -3573,7 +3603,7 @@
         <v>45711</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B94" s="2" t="s">
         <v>188</v>
       </c>
@@ -3599,7 +3629,7 @@
         <v>45766</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B95" s="2" t="s">
         <v>65</v>
       </c>
@@ -3625,7 +3655,7 @@
         <v>45789</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B96" s="2" t="s">
         <v>65</v>
       </c>
@@ -3651,7 +3681,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B97" s="2" t="s">
         <v>65</v>
       </c>
@@ -3677,7 +3707,7 @@
         <v>45848</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B98" s="2" t="s">
         <v>65</v>
       </c>
@@ -3703,7 +3733,7 @@
         <v>45849</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B99" s="2" t="s">
         <v>66</v>
       </c>
@@ -3729,7 +3759,7 @@
         <v>45883</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B100" s="2" t="s">
         <v>224</v>
       </c>
@@ -3755,7 +3785,7 @@
         <v>45891</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B101" s="2" t="s">
         <v>66</v>
       </c>
@@ -3781,7 +3811,7 @@
         <v>45902</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B102" s="2" t="s">
         <v>224</v>
       </c>
@@ -3807,7 +3837,7 @@
         <v>45904</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B103" s="2" t="s">
         <v>66</v>
       </c>
@@ -3833,7 +3863,7 @@
         <v>45910</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B104" s="2" t="s">
         <v>224</v>
       </c>
@@ -3859,7 +3889,7 @@
         <v>45913</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B105" s="2" t="s">
         <v>66</v>
       </c>
@@ -3885,7 +3915,7 @@
         <v>45920</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B106" s="2" t="s">
         <v>224</v>
       </c>
@@ -3911,8 +3941,185 @@
         <v>45920</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E108" s="5"/>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B107" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D107" s="2">
+        <v>72</v>
+      </c>
+      <c r="E107" s="3">
+        <v>46023</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I107" s="3">
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B108" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D108" s="2">
+        <v>80</v>
+      </c>
+      <c r="E108" s="3">
+        <v>46023</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I108" s="3">
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B109" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D109" s="2">
+        <v>96</v>
+      </c>
+      <c r="E109" s="3">
+        <v>46024</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I109" s="3">
+        <v>46024</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B110" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D110" s="2">
+        <v>86</v>
+      </c>
+      <c r="E110" s="3">
+        <v>46024</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I110" s="3">
+        <v>46024</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B111" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D111" s="2">
+        <v>90</v>
+      </c>
+      <c r="E111" s="3">
+        <v>46024</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I111" s="3">
+        <v>46024</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B112" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D112" s="2">
+        <v>20</v>
+      </c>
+      <c r="E112" s="3">
+        <v>46024</v>
+      </c>
+      <c r="F112" s="4"/>
+      <c r="G112" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I112" s="3">
+        <v>46024</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B113" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D113" s="2">
+        <v>24</v>
+      </c>
+      <c r="E113" s="3">
+        <v>46024</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I113" s="3">
+        <v>46024</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="B2:I68" xr:uid="{7D0F2FFB-C69B-48E5-8D17-73A3C2383ABD}"/>
@@ -4023,9 +4230,15 @@
     <hyperlink ref="F103" r:id="rId101" xr:uid="{655FAACC-8865-4C1B-ADB8-BA67512534BE}"/>
     <hyperlink ref="F105" r:id="rId102" xr:uid="{12854424-2019-4D6F-A569-CA2396ABC504}"/>
     <hyperlink ref="F106" r:id="rId103" xr:uid="{7153E643-69D6-4852-B1B6-CD70D9B646FC}"/>
+    <hyperlink ref="F107" r:id="rId104" xr:uid="{B7455582-4F57-485F-A60D-16B863BB3554}"/>
+    <hyperlink ref="F108" r:id="rId105" xr:uid="{8BE797EE-CB79-4846-B4A0-2A492C15948C}"/>
+    <hyperlink ref="F109" r:id="rId106" xr:uid="{BD0C83F9-6AFB-4BD2-9A83-03F215286F40}"/>
+    <hyperlink ref="F110" r:id="rId107" xr:uid="{5E3049C3-B5BB-4B1E-B671-B5F28E38ECE0}"/>
+    <hyperlink ref="F111" r:id="rId108" xr:uid="{5B39EE2B-35D0-4E5F-BC32-C7DF189459B5}"/>
+    <hyperlink ref="F113" r:id="rId109" xr:uid="{C5D4C411-739E-48F5-8D6A-98095928D85F}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId104"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId110"/>
 </worksheet>
 </file>
 
@@ -4037,23 +4250,23 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="86.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="77.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="77.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="0.88671875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1" hidden="1"/>
+    <col min="9" max="9" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="0.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>154</v>
       </c>
@@ -4079,7 +4292,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>150</v>
       </c>
@@ -4105,7 +4318,7 @@
         <v>45467</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>152</v>
       </c>
@@ -4131,7 +4344,7 @@
         <v>45467</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>151</v>
       </c>
@@ -4157,7 +4370,7 @@
         <v>45467</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>65</v>
       </c>

--- a/controle/controle.xlsx
+++ b/controle/controle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheli\Desktop\github\certificates\controle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1FF84F-6D23-4A20-B19B-3A9A99BB3523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7A4C43-0BBA-4CEB-93A0-C30998697B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="253">
   <si>
     <t>Youtube parte 1: criação e otimização de um canal (de 03/02/2021 a 23/02/2021) 8hrs</t>
   </si>
@@ -794,6 +794,12 @@
   </si>
   <si>
     <t>https://mycourse.app/gCfeuGwmcJoClDGJA</t>
+  </si>
+  <si>
+    <t>https://github.com/Phelipe-Sempreboni/certificates/blob/main/data-science-academy/data-engineering/certificate-theory-exam-pos-graduation-eng/certificado.pdf</t>
+  </si>
+  <si>
+    <t>Ciências da Computação</t>
   </si>
 </sst>
 </file>
@@ -1191,8 +1197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0F2FFB-C69B-48E5-8D17-73A3C2383ABD}">
   <dimension ref="A1:J113"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C116" sqref="C116"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -4084,7 +4090,9 @@
       <c r="E112" s="3">
         <v>46024</v>
       </c>
-      <c r="F112" s="4"/>
+      <c r="F112" s="4" t="s">
+        <v>251</v>
+      </c>
       <c r="G112" s="2" t="s">
         <v>28</v>
       </c>
@@ -4236,18 +4244,19 @@
     <hyperlink ref="F110" r:id="rId107" xr:uid="{5E3049C3-B5BB-4B1E-B671-B5F28E38ECE0}"/>
     <hyperlink ref="F111" r:id="rId108" xr:uid="{5B39EE2B-35D0-4E5F-BC32-C7DF189459B5}"/>
     <hyperlink ref="F113" r:id="rId109" xr:uid="{C5D4C411-739E-48F5-8D6A-98095928D85F}"/>
+    <hyperlink ref="F112" r:id="rId110" xr:uid="{9E8381F7-CFB5-46B3-A886-F2D426307000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId110"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId111"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2E6427-F1D9-4BBB-9AE6-87A9017765C2}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -4381,7 +4390,7 @@
         <v>424</v>
       </c>
       <c r="E6" s="3">
-        <v>45991</v>
+        <v>46053</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>149</v>
@@ -4393,7 +4402,33 @@
         <v>28</v>
       </c>
       <c r="I6" s="3">
-        <v>45785</v>
+        <v>46024</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3200</v>
+      </c>
+      <c r="E7" s="3">
+        <v>46752</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="3">
+        <v>46024</v>
       </c>
     </row>
   </sheetData>

--- a/controle/controle.xlsx
+++ b/controle/controle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheli\Desktop\github\certificates\controle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7A4C43-0BBA-4CEB-93A0-C30998697B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B25E83-EB4A-4C04-BAF8-9875E5E2586B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="254">
   <si>
     <t>Youtube parte 1: criação e otimização de um canal (de 03/02/2021 a 23/02/2021) 8hrs</t>
   </si>
@@ -800,6 +800,9 @@
   </si>
   <si>
     <t>Ciências da Computação</t>
+  </si>
+  <si>
+    <t>Formação Engenheiro de Dados 4</t>
   </si>
 </sst>
 </file>
@@ -1195,10 +1198,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0F2FFB-C69B-48E5-8D17-73A3C2383ABD}">
-  <dimension ref="A1:J113"/>
+  <dimension ref="A1:J114"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B113" sqref="B113"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B85" workbookViewId="0">
+      <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -4126,6 +4129,30 @@
         <v>28</v>
       </c>
       <c r="I113" s="3">
+        <v>46024</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B114" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D114" s="2">
+        <v>1</v>
+      </c>
+      <c r="E114" s="3">
+        <v>46024</v>
+      </c>
+      <c r="F114" s="4"/>
+      <c r="G114" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I114" s="3">
         <v>46024</v>
       </c>
     </row>
@@ -4256,7 +4283,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
